--- a/ig/ch-vacd/StructureDefinition-ch-vacd-immunization.xlsx
+++ b/ig/ch-vacd/StructureDefinition-ch-vacd-immunization.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$76</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$77</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2823" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2860" uniqueCount="490">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.0-ballot</t>
+    <t>5.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-17T07:15:18+00:00</t>
+    <t>2024-12-18T07:33:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -87,7 +87,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Definition of the immunization part for all documents, except recommendation request and response documents.</t>
+    <t>Definition of the immunization part for all documents.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -475,6 +475,22 @@
 </t>
   </si>
   <si>
+    <t>Immunization.extension:relatesTo</t>
+  </si>
+  <si>
+    <t>relatesTo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-ext-entry-resource-cross-references}
+</t>
+  </si>
+  <si>
+    <t>Entry Resource Cross References</t>
+  </si>
+  <si>
+    <t>The relatesTo extension is used to identify the replaced/corrected entry in an other document. The extension references the identifier and resource type of the entry and the identifier and resource type of the container i.e. Composition.</t>
+  </si>
+  <si>
     <t>Immunization.extension:medication</t>
   </si>
   <si>
@@ -699,7 +715,7 @@
     <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
   </si>
   <si>
-    <t xml:space="preserve">pattern:$this}
+    <t xml:space="preserve">value:$this}
 </t>
   </si>
   <si>
@@ -1839,7 +1855,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO76"/>
+  <dimension ref="A1:AO77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3195,7 +3211,7 @@
         <v>80</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>79</v>
@@ -3299,11 +3315,13 @@
         <v>157</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="C13" s="2"/>
+        <v>133</v>
+      </c>
+      <c r="C13" t="s" s="2">
+        <v>158</v>
+      </c>
       <c r="D13" t="s" s="2">
-        <v>158</v>
+        <v>79</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -3316,26 +3334,22 @@
         <v>79</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J13" t="s" s="2">
         <v>79</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>134</v>
+        <v>159</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="N13" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="O13" t="s" s="2">
-        <v>162</v>
-      </c>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>79</v>
       </c>
@@ -3383,7 +3397,7 @@
         <v>79</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>163</v>
+        <v>139</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>80</v>
@@ -3404,7 +3418,7 @@
         <v>79</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>132</v>
+        <v>79</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>79</v>
@@ -3415,14 +3429,14 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>79</v>
+        <v>163</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
@@ -3435,22 +3449,26 @@
         <v>79</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="J14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="L14" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="M14" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="O14" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>79</v>
       </c>
@@ -3498,7 +3516,7 @@
         <v>79</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>80</v>
@@ -3510,30 +3528,30 @@
         <v>79</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>168</v>
+        <v>79</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>169</v>
+        <v>132</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>170</v>
+        <v>79</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>171</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3541,32 +3559,30 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>109</v>
+        <v>170</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>175</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>79</v>
@@ -3591,13 +3607,13 @@
         <v>79</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>176</v>
+        <v>79</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>177</v>
+        <v>79</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>178</v>
+        <v>79</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>79</v>
@@ -3615,13 +3631,13 @@
         <v>79</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>79</v>
@@ -3630,27 +3646,27 @@
         <v>101</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>79</v>
+        <v>176</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3658,31 +3674,31 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>89</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>183</v>
+        <v>109</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3708,13 +3724,13 @@
         <v>79</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>79</v>
@@ -3732,10 +3748,10 @@
         <v>79</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>89</v>
@@ -3747,16 +3763,16 @@
         <v>101</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>79</v>
+        <v>186</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>79</v>
@@ -3764,10 +3780,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3775,30 +3791,32 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>89</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="N17" s="2"/>
+        <v>190</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>191</v>
+      </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>79</v>
@@ -3823,11 +3841,13 @@
         <v>79</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="Y17" s="2"/>
+        <v>192</v>
+      </c>
+      <c r="Y17" t="s" s="2">
+        <v>193</v>
+      </c>
       <c r="Z17" t="s" s="2">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>79</v>
@@ -3845,10 +3865,10 @@
         <v>79</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>89</v>
@@ -3860,27 +3880,27 @@
         <v>101</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>198</v>
+        <v>79</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>200</v>
+        <v>79</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>201</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3888,28 +3908,28 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>89</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3936,13 +3956,11 @@
         <v>79</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y18" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="Y18" s="2"/>
       <c r="Z18" t="s" s="2">
-        <v>79</v>
+        <v>201</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>79</v>
@@ -3960,10 +3978,10 @@
         <v>79</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>89</v>
@@ -3972,41 +3990,41 @@
         <v>79</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>79</v>
+        <v>202</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>79</v>
+        <v>203</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>79</v>
+        <v>205</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>79</v>
+        <v>206</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>158</v>
+        <v>79</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>79</v>
@@ -4018,7 +4036,7 @@
         <v>79</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>134</v>
+        <v>208</v>
       </c>
       <c r="L19" t="s" s="2">
         <v>209</v>
@@ -4026,9 +4044,7 @@
       <c r="M19" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="N19" t="s" s="2">
-        <v>161</v>
-      </c>
+      <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>79</v>
@@ -4065,40 +4081,40 @@
         <v>79</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AC19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF19" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="AD19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AF19" t="s" s="2">
+      <c r="AG19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM19" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="AG19" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AK19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>79</v>
@@ -4116,7 +4132,7 @@
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>79</v>
+        <v>163</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -4132,23 +4148,21 @@
         <v>79</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="M20" t="s" s="2">
-        <v>216</v>
-      </c>
       <c r="N20" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>218</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>79</v>
       </c>
@@ -4184,10 +4198,10 @@
         <v>79</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>219</v>
+        <v>137</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="AD20" t="s" s="2">
         <v>79</v>
@@ -4196,7 +4210,7 @@
         <v>138</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
@@ -4208,16 +4222,16 @@
         <v>79</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>222</v>
+        <v>79</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>79</v>
@@ -4228,14 +4242,12 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="C21" t="s" s="2">
-        <v>225</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
         <v>79</v>
       </c>
@@ -4244,7 +4256,7 @@
         <v>80</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>79</v>
@@ -4256,19 +4268,19 @@
         <v>90</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>79</v>
@@ -4293,29 +4305,31 @@
         <v>79</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="Y21" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="Y21" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Z21" t="s" s="2">
-        <v>196</v>
+        <v>79</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>79</v>
+        <v>224</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>79</v>
+        <v>225</v>
       </c>
       <c r="AD21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>79</v>
+        <v>138</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -4333,10 +4347,10 @@
         <v>79</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>79</v>
@@ -4347,13 +4361,13 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D22" t="s" s="2">
         <v>79</v>
@@ -4375,19 +4389,19 @@
         <v>90</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>79</v>
@@ -4412,11 +4426,11 @@
         <v>79</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="Y22" s="2"/>
       <c r="Z22" t="s" s="2">
-        <v>230</v>
+        <v>201</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>79</v>
@@ -4434,7 +4448,7 @@
         <v>79</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
@@ -4452,10 +4466,10 @@
         <v>79</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>79</v>
@@ -4466,13 +4480,13 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D23" t="s" s="2">
         <v>79</v>
@@ -4494,19 +4508,19 @@
         <v>90</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M23" t="s" s="2">
         <v>234</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>79</v>
@@ -4531,7 +4545,7 @@
         <v>79</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="Y23" s="2"/>
       <c r="Z23" t="s" s="2">
@@ -4553,7 +4567,7 @@
         <v>79</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
@@ -4571,10 +4585,10 @@
         <v>79</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>79</v>
@@ -4588,9 +4602,11 @@
         <v>236</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="C24" s="2"/>
+        <v>218</v>
+      </c>
+      <c r="C24" t="s" s="2">
+        <v>237</v>
+      </c>
       <c r="D24" t="s" s="2">
         <v>79</v>
       </c>
@@ -4611,19 +4627,19 @@
         <v>90</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>79</v>
@@ -4648,13 +4664,11 @@
         <v>79</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y24" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="Y24" s="2"/>
       <c r="Z24" t="s" s="2">
-        <v>79</v>
+        <v>240</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>79</v>
@@ -4672,13 +4686,13 @@
         <v>79</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>79</v>
@@ -4690,10 +4704,10 @@
         <v>79</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>79</v>
@@ -4704,10 +4718,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4715,7 +4729,7 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>89</v>
@@ -4730,16 +4744,20 @@
         <v>90</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="L25" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="O25" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="L25" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>79</v>
       </c>
@@ -4787,10 +4805,10 @@
         <v>79</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>89</v>
@@ -4802,16 +4820,16 @@
         <v>101</v>
       </c>
       <c r="AK25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL25" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="AM25" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="AL25" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="AM25" t="s" s="2">
-        <v>250</v>
-      </c>
       <c r="AN25" t="s" s="2">
-        <v>251</v>
+        <v>79</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>79</v>
@@ -4819,10 +4837,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4830,7 +4848,7 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>89</v>
@@ -4842,16 +4860,16 @@
         <v>79</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4902,10 +4920,10 @@
         <v>79</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>89</v>
@@ -4917,16 +4935,16 @@
         <v>101</v>
       </c>
       <c r="AK26" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="AL26" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="AM26" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="AN26" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>259</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>79</v>
@@ -4934,10 +4952,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4945,7 +4963,7 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>89</v>
@@ -4957,20 +4975,18 @@
         <v>79</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>264</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>79</v>
@@ -5007,20 +5023,22 @@
         <v>79</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="AC27" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AD27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>89</v>
@@ -5032,43 +5050,41 @@
         <v>101</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>270</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="C28" t="s" s="2">
-        <v>272</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>89</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>79</v>
@@ -5077,16 +5093,16 @@
         <v>90</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5124,19 +5140,17 @@
         <v>79</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="AC28" s="2"/>
       <c r="AD28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>79</v>
+        <v>138</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>89</v>
@@ -5151,29 +5165,31 @@
         <v>101</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>270</v>
+        <v>275</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="C29" s="2"/>
+        <v>265</v>
+      </c>
+      <c r="C29" t="s" s="2">
+        <v>277</v>
+      </c>
       <c r="D29" t="s" s="2">
         <v>79</v>
       </c>
@@ -5185,24 +5201,26 @@
         <v>89</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>268</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>269</v>
+      </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>79</v>
@@ -5251,10 +5269,10 @@
         <v>79</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>89</v>
@@ -5266,19 +5284,19 @@
         <v>101</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>79</v>
+        <v>271</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>79</v>
+        <v>272</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>79</v>
+        <v>275</v>
       </c>
     </row>
     <row r="30" hidden="true">
@@ -5306,20 +5324,18 @@
         <v>79</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="M30" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>283</v>
-      </c>
+      <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>79</v>
@@ -5386,13 +5402,13 @@
         <v>79</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>284</v>
+        <v>79</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>79</v>
@@ -5400,10 +5416,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5423,19 +5439,19 @@
         <v>79</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>183</v>
+        <v>285</v>
       </c>
       <c r="L31" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="N31" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>290</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5461,13 +5477,13 @@
         <v>79</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>187</v>
+        <v>79</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>291</v>
+        <v>79</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>292</v>
+        <v>79</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>79</v>
@@ -5485,7 +5501,7 @@
         <v>79</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -5503,13 +5519,13 @@
         <v>79</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>79</v>
@@ -5517,10 +5533,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5543,15 +5559,17 @@
         <v>79</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="N32" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="L32" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>79</v>
@@ -5576,13 +5594,13 @@
         <v>79</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>79</v>
+        <v>192</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>79</v>
+        <v>296</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>79</v>
+        <v>297</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>79</v>
@@ -5600,7 +5618,7 @@
         <v>79</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -5615,16 +5633,16 @@
         <v>101</v>
       </c>
       <c r="AK32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL32" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AM32" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="AL32" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>300</v>
-      </c>
       <c r="AN32" t="s" s="2">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>79</v>
@@ -5632,10 +5650,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5658,13 +5676,13 @@
         <v>79</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5715,7 +5733,7 @@
         <v>79</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -5730,27 +5748,27 @@
         <v>101</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>79</v>
+        <v>303</v>
       </c>
       <c r="AL33" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="AM33" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="AN33" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="AM33" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="AN33" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AO33" t="s" s="2">
-        <v>308</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5764,7 +5782,7 @@
         <v>89</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>79</v>
@@ -5773,13 +5791,13 @@
         <v>79</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>203</v>
+        <v>308</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>311</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5830,7 +5848,7 @@
         <v>79</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -5848,24 +5866,24 @@
         <v>79</v>
       </c>
       <c r="AL34" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="AM34" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="AM34" t="s" s="2">
+      <c r="AN34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO34" t="s" s="2">
         <v>313</v>
-      </c>
-      <c r="AN34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO34" t="s" s="2">
-        <v>314</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5879,7 +5897,7 @@
         <v>89</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>79</v>
@@ -5888,13 +5906,13 @@
         <v>79</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>316</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>318</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5945,7 +5963,7 @@
         <v>79</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -5963,24 +5981,24 @@
         <v>79</v>
       </c>
       <c r="AL35" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="AM35" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="AN35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO35" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="AN35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO35" t="s" s="2">
-        <v>79</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5994,7 +6012,7 @@
         <v>89</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>79</v>
@@ -6003,7 +6021,7 @@
         <v>79</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>183</v>
+        <v>321</v>
       </c>
       <c r="L36" t="s" s="2">
         <v>322</v>
@@ -6036,13 +6054,13 @@
         <v>79</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>187</v>
+        <v>79</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>324</v>
+        <v>79</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>325</v>
+        <v>79</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>79</v>
@@ -6060,7 +6078,7 @@
         <v>79</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -6078,24 +6096,24 @@
         <v>79</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>328</v>
+        <v>79</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6118,13 +6136,13 @@
         <v>79</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6151,11 +6169,13 @@
         <v>79</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="Y37" s="2"/>
+        <v>192</v>
+      </c>
+      <c r="Y37" t="s" s="2">
+        <v>329</v>
+      </c>
       <c r="Z37" t="s" s="2">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>79</v>
@@ -6173,7 +6193,7 @@
         <v>79</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6191,24 +6211,24 @@
         <v>79</v>
       </c>
       <c r="AL37" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="AM37" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="AN37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO37" t="s" s="2">
         <v>333</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="AN37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO37" t="s" s="2">
-        <v>335</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6222,7 +6242,7 @@
         <v>89</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>79</v>
@@ -6231,13 +6251,13 @@
         <v>79</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>337</v>
+        <v>188</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6264,13 +6284,11 @@
         <v>79</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y38" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="Y38" s="2"/>
       <c r="Z38" t="s" s="2">
-        <v>79</v>
+        <v>337</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>79</v>
@@ -6288,7 +6306,7 @@
         <v>79</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6306,24 +6324,24 @@
         <v>79</v>
       </c>
       <c r="AL38" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="AM38" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="AN38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO38" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="AN38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO38" t="s" s="2">
-        <v>79</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6334,7 +6352,7 @@
         <v>80</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>79</v>
@@ -6343,16 +6361,16 @@
         <v>79</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>344</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>345</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6403,13 +6421,13 @@
         <v>79</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>79</v>
@@ -6418,13 +6436,13 @@
         <v>101</v>
       </c>
       <c r="AK39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="AM39" t="s" s="2">
         <v>346</v>
-      </c>
-      <c r="AL39" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>348</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>79</v>
@@ -6435,10 +6453,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6449,7 +6467,7 @@
         <v>80</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>79</v>
@@ -6458,16 +6476,16 @@
         <v>79</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>203</v>
+        <v>348</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>204</v>
+        <v>349</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>205</v>
+        <v>350</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6518,28 +6536,28 @@
         <v>79</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>206</v>
+        <v>347</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>79</v>
+        <v>351</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>79</v>
+        <v>352</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>207</v>
+        <v>353</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>79</v>
@@ -6550,21 +6568,21 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>158</v>
+        <v>79</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>79</v>
@@ -6576,7 +6594,7 @@
         <v>79</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>134</v>
+        <v>208</v>
       </c>
       <c r="L41" t="s" s="2">
         <v>209</v>
@@ -6584,9 +6602,7 @@
       <c r="M41" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="N41" t="s" s="2">
-        <v>161</v>
-      </c>
+      <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>79</v>
@@ -6635,28 +6651,28 @@
         <v>79</v>
       </c>
       <c r="AF41" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM41" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="AG41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH41" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ41" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AK41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>79</v>
@@ -6667,14 +6683,14 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>352</v>
+        <v>163</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -6687,26 +6703,24 @@
         <v>79</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K42" t="s" s="2">
         <v>134</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>353</v>
+        <v>214</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>354</v>
+        <v>215</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>162</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>79</v>
       </c>
@@ -6754,7 +6768,7 @@
         <v>79</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>355</v>
+        <v>217</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -6775,7 +6789,7 @@
         <v>79</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>132</v>
+        <v>212</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>79</v>
@@ -6793,35 +6807,39 @@
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>79</v>
+        <v>357</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="J43" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>183</v>
+        <v>134</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
+        <v>359</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="O43" t="s" s="2">
+        <v>167</v>
+      </c>
       <c r="P43" t="s" s="2">
         <v>79</v>
       </c>
@@ -6845,52 +6863,52 @@
         <v>79</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>195</v>
+        <v>79</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>359</v>
+        <v>79</v>
       </c>
       <c r="Z43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF43" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="AA43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF43" t="s" s="2">
-        <v>356</v>
-      </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>361</v>
+        <v>79</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>362</v>
+        <v>132</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>79</v>
@@ -6901,10 +6919,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6912,13 +6930,13 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>89</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>79</v>
@@ -6927,17 +6945,15 @@
         <v>90</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>364</v>
+        <v>188</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>367</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>79</v>
@@ -6962,13 +6978,13 @@
         <v>79</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>79</v>
+        <v>200</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>79</v>
+        <v>364</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>79</v>
+        <v>365</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>79</v>
@@ -6986,10 +7002,10 @@
         <v>79</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>89</v>
@@ -7001,16 +7017,16 @@
         <v>101</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>370</v>
+        <v>79</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>79</v>
@@ -7018,10 +7034,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7029,13 +7045,13 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>79</v>
@@ -7044,15 +7060,17 @@
         <v>90</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="N45" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="L45" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>79</v>
@@ -7101,13 +7119,13 @@
         <v>79</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>79</v>
@@ -7116,16 +7134,16 @@
         <v>101</v>
       </c>
       <c r="AK45" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM45" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="AN45" t="s" s="2">
         <v>375</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="AN45" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>79</v>
@@ -7133,10 +7151,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7150,22 +7168,22 @@
         <v>81</v>
       </c>
       <c r="H46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J46" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="I46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J46" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="K46" t="s" s="2">
-        <v>183</v>
+        <v>377</v>
       </c>
       <c r="L46" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>379</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>380</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7192,13 +7210,13 @@
         <v>79</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>187</v>
+        <v>79</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>381</v>
+        <v>79</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>382</v>
+        <v>79</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>79</v>
@@ -7216,7 +7234,7 @@
         <v>79</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7231,13 +7249,13 @@
         <v>101</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>79</v>
+        <v>381</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>79</v>
@@ -7248,10 +7266,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7265,7 +7283,7 @@
         <v>81</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>79</v>
@@ -7274,13 +7292,13 @@
         <v>79</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>386</v>
+        <v>188</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7307,13 +7325,13 @@
         <v>79</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>79</v>
+        <v>192</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>79</v>
+        <v>386</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>79</v>
+        <v>387</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>79</v>
@@ -7331,7 +7349,7 @@
         <v>79</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -7352,7 +7370,7 @@
         <v>79</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>132</v>
+        <v>389</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>79</v>
@@ -7363,10 +7381,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7377,36 +7395,32 @@
         <v>80</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>280</v>
+        <v>391</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="N48" t="s" s="2">
         <v>392</v>
       </c>
+      <c r="N48" s="2"/>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="Q48" t="s" s="2">
-        <v>393</v>
-      </c>
+      <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
         <v>79</v>
       </c>
@@ -7450,13 +7464,13 @@
         <v>79</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>79</v>
@@ -7465,10 +7479,10 @@
         <v>101</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>79</v>
+        <v>393</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>394</v>
+        <v>79</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>132</v>
@@ -7482,10 +7496,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7496,32 +7510,36 @@
         <v>80</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>183</v>
+        <v>285</v>
       </c>
       <c r="L49" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>396</v>
       </c>
-      <c r="M49" t="s" s="2">
+      <c r="N49" t="s" s="2">
         <v>397</v>
       </c>
-      <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="Q49" s="2"/>
+      <c r="Q49" t="s" s="2">
+        <v>398</v>
+      </c>
       <c r="R49" t="s" s="2">
         <v>79</v>
       </c>
@@ -7541,13 +7559,13 @@
         <v>79</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>187</v>
+        <v>79</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>398</v>
+        <v>79</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>399</v>
+        <v>79</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>79</v>
@@ -7565,13 +7583,13 @@
         <v>79</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>79</v>
@@ -7583,7 +7601,7 @@
         <v>79</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>79</v>
+        <v>399</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>132</v>
@@ -7623,7 +7641,7 @@
         <v>79</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>343</v>
+        <v>188</v>
       </c>
       <c r="L50" t="s" s="2">
         <v>401</v>
@@ -7656,13 +7674,13 @@
         <v>79</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>79</v>
+        <v>192</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>79</v>
+        <v>403</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>79</v>
+        <v>404</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>79</v>
@@ -7692,7 +7710,7 @@
         <v>79</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>403</v>
+        <v>101</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>79</v>
@@ -7712,10 +7730,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7726,7 +7744,7 @@
         <v>80</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>79</v>
@@ -7738,13 +7756,13 @@
         <v>79</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>203</v>
+        <v>348</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>204</v>
+        <v>406</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>205</v>
+        <v>407</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7795,19 +7813,19 @@
         <v>79</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>206</v>
+        <v>405</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>79</v>
+        <v>408</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>79</v>
@@ -7816,7 +7834,7 @@
         <v>79</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>207</v>
+        <v>132</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>79</v>
@@ -7827,21 +7845,21 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>158</v>
+        <v>79</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>79</v>
@@ -7853,7 +7871,7 @@
         <v>79</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>134</v>
+        <v>208</v>
       </c>
       <c r="L52" t="s" s="2">
         <v>209</v>
@@ -7861,9 +7879,7 @@
       <c r="M52" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="N52" t="s" s="2">
-        <v>161</v>
-      </c>
+      <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>79</v>
@@ -7912,28 +7928,28 @@
         <v>79</v>
       </c>
       <c r="AF52" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM52" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="AG52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH52" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ52" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>79</v>
@@ -7944,14 +7960,14 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>352</v>
+        <v>163</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -7964,26 +7980,24 @@
         <v>79</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K53" t="s" s="2">
         <v>134</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>353</v>
+        <v>214</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>354</v>
+        <v>215</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>162</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>79</v>
       </c>
@@ -8031,7 +8045,7 @@
         <v>79</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>355</v>
+        <v>217</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -8052,7 +8066,7 @@
         <v>79</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>132</v>
+        <v>212</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>79</v>
@@ -8063,42 +8077,46 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>79</v>
+        <v>357</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>203</v>
+        <v>134</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>408</v>
+        <v>358</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
+        <v>359</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>167</v>
+      </c>
       <c r="P54" t="s" s="2">
         <v>79</v>
       </c>
@@ -8146,25 +8164,25 @@
         <v>79</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>407</v>
+        <v>360</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>410</v>
+        <v>79</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>132</v>
@@ -8178,10 +8196,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8204,13 +8222,13 @@
         <v>79</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>103</v>
+        <v>208</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8261,7 +8279,7 @@
         <v>79</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
@@ -8279,7 +8297,7 @@
         <v>79</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>79</v>
+        <v>415</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>132</v>
@@ -8293,10 +8311,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8319,13 +8337,13 @@
         <v>79</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>273</v>
+        <v>103</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8376,7 +8394,7 @@
         <v>79</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -8394,7 +8412,7 @@
         <v>79</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>417</v>
+        <v>79</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>132</v>
@@ -8408,10 +8426,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8434,13 +8452,13 @@
         <v>79</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8491,7 +8509,7 @@
         <v>79</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -8509,7 +8527,7 @@
         <v>79</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>132</v>
@@ -8523,10 +8541,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8537,7 +8555,7 @@
         <v>80</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>79</v>
@@ -8549,13 +8567,13 @@
         <v>79</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>183</v>
+        <v>278</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8582,13 +8600,13 @@
         <v>79</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>187</v>
+        <v>79</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>425</v>
+        <v>79</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>426</v>
+        <v>79</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>79</v>
@@ -8606,13 +8624,13 @@
         <v>79</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>79</v>
@@ -8624,7 +8642,7 @@
         <v>79</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>132</v>
@@ -8638,10 +8656,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8652,7 +8670,7 @@
         <v>80</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>79</v>
@@ -8664,13 +8682,13 @@
         <v>79</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="L59" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="M59" t="s" s="2">
         <v>429</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>430</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8697,14 +8715,14 @@
         <v>79</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="Y59" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="Z59" t="s" s="2">
         <v>431</v>
       </c>
-      <c r="Z59" t="s" s="2">
-        <v>432</v>
-      </c>
       <c r="AA59" t="s" s="2">
         <v>79</v>
       </c>
@@ -8721,13 +8739,13 @@
         <v>79</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>79</v>
@@ -8739,7 +8757,7 @@
         <v>79</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>79</v>
+        <v>432</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>132</v>
@@ -8767,7 +8785,7 @@
         <v>80</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>79</v>
@@ -8779,7 +8797,7 @@
         <v>79</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>343</v>
+        <v>188</v>
       </c>
       <c r="L60" t="s" s="2">
         <v>434</v>
@@ -8787,9 +8805,7 @@
       <c r="M60" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="N60" t="s" s="2">
-        <v>436</v>
-      </c>
+      <c r="N60" s="2"/>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>79</v>
@@ -8814,13 +8830,13 @@
         <v>79</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>79</v>
+        <v>192</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>79</v>
+        <v>436</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>79</v>
+        <v>437</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>79</v>
@@ -8844,7 +8860,7 @@
         <v>80</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>79</v>
@@ -8856,10 +8872,10 @@
         <v>79</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>437</v>
+        <v>79</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>438</v>
+        <v>132</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>79</v>
@@ -8870,10 +8886,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8884,7 +8900,7 @@
         <v>80</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>79</v>
@@ -8896,15 +8912,17 @@
         <v>79</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>203</v>
+        <v>348</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>204</v>
+        <v>439</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="N61" s="2"/>
+        <v>440</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>441</v>
+      </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>79</v>
@@ -8953,28 +8971,28 @@
         <v>79</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>206</v>
+        <v>438</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>79</v>
+        <v>442</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>207</v>
+        <v>443</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>79</v>
@@ -8985,21 +9003,21 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>158</v>
+        <v>79</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>79</v>
@@ -9011,7 +9029,7 @@
         <v>79</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>134</v>
+        <v>208</v>
       </c>
       <c r="L62" t="s" s="2">
         <v>209</v>
@@ -9019,9 +9037,7 @@
       <c r="M62" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="N62" t="s" s="2">
-        <v>161</v>
-      </c>
+      <c r="N62" s="2"/>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>79</v>
@@ -9070,28 +9086,28 @@
         <v>79</v>
       </c>
       <c r="AF62" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM62" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="AG62" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH62" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI62" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ62" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AK62" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL62" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM62" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>79</v>
@@ -9102,14 +9118,14 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>352</v>
+        <v>163</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
@@ -9122,26 +9138,24 @@
         <v>79</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K63" t="s" s="2">
         <v>134</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>353</v>
+        <v>214</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>354</v>
+        <v>215</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="O63" t="s" s="2">
-        <v>162</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>79</v>
       </c>
@@ -9189,7 +9203,7 @@
         <v>79</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>355</v>
+        <v>217</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
@@ -9210,7 +9224,7 @@
         <v>79</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>132</v>
+        <v>212</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>79</v>
@@ -9221,42 +9235,46 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>79</v>
+        <v>357</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>273</v>
+        <v>134</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>443</v>
+        <v>358</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="N64" s="2"/>
-      <c r="O64" s="2"/>
+        <v>359</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="O64" t="s" s="2">
+        <v>167</v>
+      </c>
       <c r="P64" t="s" s="2">
         <v>79</v>
       </c>
@@ -9304,28 +9322,28 @@
         <v>79</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>442</v>
+        <v>360</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>445</v>
+        <v>79</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>268</v>
+        <v>132</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>79</v>
@@ -9336,10 +9354,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9362,7 +9380,7 @@
         <v>79</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>447</v>
+        <v>278</v>
       </c>
       <c r="L65" t="s" s="2">
         <v>448</v>
@@ -9419,7 +9437,7 @@
         <v>79</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
@@ -9440,7 +9458,7 @@
         <v>450</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>451</v>
+        <v>273</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>79</v>
@@ -9451,10 +9469,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9477,7 +9495,7 @@
         <v>79</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>280</v>
+        <v>452</v>
       </c>
       <c r="L66" t="s" s="2">
         <v>453</v>
@@ -9534,7 +9552,7 @@
         <v>79</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
@@ -9580,7 +9598,7 @@
         <v>80</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>79</v>
@@ -9592,7 +9610,7 @@
         <v>79</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>343</v>
+        <v>285</v>
       </c>
       <c r="L67" t="s" s="2">
         <v>458</v>
@@ -9655,7 +9673,7 @@
         <v>80</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>79</v>
@@ -9667,10 +9685,10 @@
         <v>79</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>79</v>
+        <v>460</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>132</v>
+        <v>461</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>79</v>
@@ -9681,10 +9699,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9695,7 +9713,7 @@
         <v>80</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>79</v>
@@ -9707,13 +9725,13 @@
         <v>79</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>203</v>
+        <v>348</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>204</v>
+        <v>463</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>205</v>
+        <v>464</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -9764,19 +9782,19 @@
         <v>79</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>206</v>
+        <v>462</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>79</v>
@@ -9785,7 +9803,7 @@
         <v>79</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>207</v>
+        <v>132</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>79</v>
@@ -9796,21 +9814,21 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>158</v>
+        <v>79</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>79</v>
@@ -9822,7 +9840,7 @@
         <v>79</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>134</v>
+        <v>208</v>
       </c>
       <c r="L69" t="s" s="2">
         <v>209</v>
@@ -9830,9 +9848,7 @@
       <c r="M69" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="N69" t="s" s="2">
-        <v>161</v>
-      </c>
+      <c r="N69" s="2"/>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>79</v>
@@ -9881,28 +9897,28 @@
         <v>79</v>
       </c>
       <c r="AF69" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM69" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="AG69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH69" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ69" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AK69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM69" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>79</v>
@@ -9913,14 +9929,14 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>352</v>
+        <v>163</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
@@ -9933,26 +9949,24 @@
         <v>79</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K70" t="s" s="2">
         <v>134</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>353</v>
+        <v>214</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>354</v>
+        <v>215</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>162</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>79</v>
       </c>
@@ -10000,7 +10014,7 @@
         <v>79</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>355</v>
+        <v>217</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
@@ -10021,7 +10035,7 @@
         <v>79</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>132</v>
+        <v>212</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>79</v>
@@ -10032,42 +10046,46 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>79</v>
+        <v>357</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>203</v>
+        <v>134</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>464</v>
+        <v>358</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="N71" s="2"/>
-      <c r="O71" s="2"/>
+        <v>359</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="O71" t="s" s="2">
+        <v>167</v>
+      </c>
       <c r="P71" t="s" s="2">
         <v>79</v>
       </c>
@@ -10115,19 +10133,19 @@
         <v>79</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>463</v>
+        <v>360</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>79</v>
@@ -10147,10 +10165,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10173,13 +10191,13 @@
         <v>79</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>303</v>
+        <v>208</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -10230,7 +10248,7 @@
         <v>79</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
@@ -10262,10 +10280,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10276,7 +10294,7 @@
         <v>80</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>79</v>
@@ -10288,13 +10306,13 @@
         <v>79</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>183</v>
+        <v>308</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -10321,13 +10339,13 @@
         <v>79</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>472</v>
+        <v>79</v>
       </c>
       <c r="Z73" t="s" s="2">
-        <v>473</v>
+        <v>79</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>79</v>
@@ -10345,13 +10363,13 @@
         <v>79</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>79</v>
@@ -10388,10 +10406,10 @@
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>79</v>
@@ -10403,17 +10421,15 @@
         <v>79</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="L74" t="s" s="2">
         <v>475</v>
       </c>
-      <c r="L74" t="s" s="2">
+      <c r="M74" t="s" s="2">
         <v>476</v>
       </c>
-      <c r="M74" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>478</v>
-      </c>
+      <c r="N74" s="2"/>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>79</v>
@@ -10438,35 +10454,37 @@
         <v>79</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>79</v>
+        <v>477</v>
       </c>
       <c r="Z74" t="s" s="2">
-        <v>79</v>
+        <v>478</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AB74" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="AC74" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AD74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>474</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>79</v>
@@ -10495,23 +10513,21 @@
         <v>479</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="C75" t="s" s="2">
-        <v>480</v>
-      </c>
+        <v>479</v>
+      </c>
+      <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>89</v>
       </c>
       <c r="H75" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="I75" t="s" s="2">
         <v>79</v>
@@ -10520,16 +10536,16 @@
         <v>79</v>
       </c>
       <c r="K75" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="L75" t="s" s="2">
         <v>481</v>
       </c>
-      <c r="L75" t="s" s="2">
-        <v>476</v>
-      </c>
       <c r="M75" t="s" s="2">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
@@ -10567,19 +10583,17 @@
         <v>79</v>
       </c>
       <c r="AB75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC75" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="AC75" s="2"/>
       <c r="AD75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>79</v>
+        <v>138</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>89</v>
@@ -10611,12 +10625,14 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="C76" s="2"/>
+        <v>479</v>
+      </c>
+      <c r="C76" t="s" s="2">
+        <v>485</v>
+      </c>
       <c r="D76" t="s" s="2">
         <v>79</v>
       </c>
@@ -10628,7 +10644,7 @@
         <v>89</v>
       </c>
       <c r="H76" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="I76" t="s" s="2">
         <v>79</v>
@@ -10637,16 +10653,16 @@
         <v>79</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>475</v>
+        <v>486</v>
       </c>
       <c r="L76" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="N76" t="s" s="2">
         <v>483</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>478</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
@@ -10696,10 +10712,10 @@
         <v>79</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>89</v>
@@ -10726,8 +10742,125 @@
         <v>79</v>
       </c>
     </row>
+    <row r="77" hidden="true">
+      <c r="A77" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="B77" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="C77" s="2"/>
+      <c r="D77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E77" s="2"/>
+      <c r="F77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="O77" s="2"/>
+      <c r="P77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q77" s="2"/>
+      <c r="R77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AN77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO77" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AO76">
+  <autoFilter ref="A1:AO77">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -10737,7 +10870,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI75">
+  <conditionalFormatting sqref="A2:AI76">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/ig/ch-vacd/StructureDefinition-ch-vacd-immunization.xlsx
+++ b/ig/ch-vacd/StructureDefinition-ch-vacd-immunization.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$77</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$75</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2860" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2778" uniqueCount="478">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.0</t>
+    <t>6.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-18T07:33:04+00:00</t>
+    <t>2025-05-22T09:46:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -523,6 +523,22 @@
     <t>Indicator for merging conflicts.</t>
   </si>
   <si>
+    <t>Immunization.extension:verificationStatus</t>
+  </si>
+  <si>
+    <t>verificationStatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://fhir.ch/ig/ch-vacd/StructureDefinition/ch-vacd-ext-verification-status}
+</t>
+  </si>
+  <si>
+    <t>Verification Status</t>
+  </si>
+  <si>
+    <t>Status of verification by a practitioner</t>
+  </si>
+  <si>
     <t>Immunization.modifierExtension</t>
   </si>
   <si>
@@ -641,9 +657,6 @@
     <t>Vaccine that was administered or was to be administered.</t>
   </si>
   <si>
-    <t>extensible</t>
-  </si>
-  <si>
     <t>http://fhir.ch/ig/ch-vacd/ValueSet/ch-vacd-vaccines-vs</t>
   </si>
   <si>
@@ -662,228 +675,161 @@
     <t>ClinicalDocument/component/StructuredBody/component/section/entry/substanceAdministration/consumable/manfacturedProduct/manufacturedMaterial/realmCode/code</t>
   </si>
   <si>
-    <t>Immunization.vaccineCode.id</t>
+    <t>Immunization.patient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-patient)
+</t>
+  </si>
+  <si>
+    <t>Patient</t>
+  </si>
+  <si>
+    <t>The patient who either received or did not receive the immunization.</t>
+  </si>
+  <si>
+    <t>Event.subject</t>
+  </si>
+  <si>
+    <t>PID-3</t>
+  </si>
+  <si>
+    <t>.partipication[ttypeCode=].role</t>
+  </si>
+  <si>
+    <t>FiveWs.subject</t>
+  </si>
+  <si>
+    <t>Immunization.encounter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-encounter)
+</t>
+  </si>
+  <si>
+    <t>Encounter</t>
+  </si>
+  <si>
+    <t>The visit or admission or other contact between patient and health care provider the immunization was performed as part of.</t>
+  </si>
+  <si>
+    <t>Event.context</t>
+  </si>
+  <si>
+    <t>PV1-19</t>
+  </si>
+  <si>
+    <t>component-&gt;EncounterEvent</t>
+  </si>
+  <si>
+    <t>FiveWs.context</t>
+  </si>
+  <si>
+    <t>Immunization.occurrence[x]</t>
+  </si>
+  <si>
+    <t>dateTime
+string</t>
+  </si>
+  <si>
+    <t>Vaccine administration date</t>
+  </si>
+  <si>
+    <t>Date vaccine administered or was to be administered.</t>
+  </si>
+  <si>
+    <t>When immunizations are given a specific date and time should always be known.   When immunizations are patient reported, a specific date might not be known.  Although partial dates are allowed, an adult patient might not be able to recall the year a childhood immunization was given. An exact date is always preferable, but the use of the String data type is acceptable when an exact date is not known. A small number of vaccines (e.g. live oral typhoid vaccine) are given as a series of patient self-administered dose over a span of time. In cases like this, often, only the first dose (typically a provider supervised dose) is recorded with the occurrence indicating the date/time of the first dose.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>Event.occurrence[x]</t>
+  </si>
+  <si>
+    <t>RXA-3</t>
+  </si>
+  <si>
+    <t>.effectiveTime</t>
+  </si>
+  <si>
+    <t>FiveWs.done[x]</t>
+  </si>
+  <si>
+    <t>ClinicalDocument/component/StructuredBody/component/section/entry/substanceAdministration/effectiveTime/value</t>
+  </si>
+  <si>
+    <t>Immunization.occurrence[x]:occurrenceDateTime</t>
+  </si>
+  <si>
+    <t>occurrenceDateTime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dateTime
+</t>
+  </si>
+  <si>
+    <t>Immunization.occurrence[x]:occurrenceDateTime.id</t>
+  </si>
+  <si>
+    <t>Immunization.occurrence[x].id</t>
   </si>
   <si>
     <t xml:space="preserve">string
 </t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+    <t>xml:id (or equivalent in JSON)</t>
+  </si>
+  <si>
+    <t>unique id for the element within a resource (for internal references)</t>
   </si>
   <si>
     <t>Element.id</t>
   </si>
   <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Immunization.vaccineCode.extension</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
+    <t>Immunization.occurrence[x]:occurrenceDateTime.extension</t>
+  </si>
+  <si>
+    <t>Immunization.occurrence[x].extension</t>
   </si>
   <si>
     <t>Element.extension</t>
   </si>
   <si>
-    <t>Immunization.vaccineCode.coding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding
+    <t>Immunization.occurrence[x]:occurrenceDateTime.extension:data-absent-reason</t>
+  </si>
+  <si>
+    <t>data-absent-reason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {data-absent-reason|4.0.1}
 </t>
   </si>
   <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
-  </si>
-  <si>
-    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:$this}
-</t>
-  </si>
-  <si>
-    <t>Slice based on code value</t>
-  </si>
-  <si>
-    <t>CodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>C*E.1-8, C*E.10-22</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>Immunization.vaccineCode.coding:swissVaccines</t>
-  </si>
-  <si>
-    <t>swissVaccines</t>
-  </si>
-  <si>
-    <t>Swiss Vaccine Code</t>
-  </si>
-  <si>
-    <t>Immunization.vaccineCode.coding:snomedctVaccines</t>
-  </si>
-  <si>
-    <t>snomedctVaccines</t>
-  </si>
-  <si>
-    <t>Vaccine Code by SNOMED CT</t>
-  </si>
-  <si>
-    <t>http://fhir.ch/ig/ch-vacd/ValueSet/ch-vacd-vaccines-snomedct-vs</t>
-  </si>
-  <si>
-    <t>Immunization.vaccineCode.coding:absentOrUnknownImmunization</t>
-  </si>
-  <si>
-    <t>absentOrUnknownImmunization</t>
-  </si>
-  <si>
-    <t>Absent Unknown Immunization</t>
-  </si>
-  <si>
-    <t>A reference to a code indicating that there there are no known immunizations or that this information is unknown.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/uv/ips/ValueSet/absent-or-unknown-immunizations-uv-ips</t>
-  </si>
-  <si>
-    <t>Immunization.vaccineCode.text</t>
-  </si>
-  <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.text</t>
-  </si>
-  <si>
-    <t>C*E.9. But note many systems use C*E.2 for this</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
-  </si>
-  <si>
-    <t>Immunization.patient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-patient)
-</t>
-  </si>
-  <si>
-    <t>Patient</t>
-  </si>
-  <si>
-    <t>The patient who either received or did not receive the immunization.</t>
-  </si>
-  <si>
-    <t>Event.subject</t>
-  </si>
-  <si>
-    <t>PID-3</t>
-  </si>
-  <si>
-    <t>.partipication[ttypeCode=].role</t>
-  </si>
-  <si>
-    <t>FiveWs.subject</t>
-  </si>
-  <si>
-    <t>Immunization.encounter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-encounter)
-</t>
-  </si>
-  <si>
-    <t>Encounter</t>
-  </si>
-  <si>
-    <t>The visit or admission or other contact between patient and health care provider the immunization was performed as part of.</t>
-  </si>
-  <si>
-    <t>Event.context</t>
-  </si>
-  <si>
-    <t>PV1-19</t>
-  </si>
-  <si>
-    <t>component-&gt;EncounterEvent</t>
-  </si>
-  <si>
-    <t>FiveWs.context</t>
-  </si>
-  <si>
-    <t>Immunization.occurrence[x]</t>
-  </si>
-  <si>
-    <t>dateTime
-string</t>
-  </si>
-  <si>
-    <t>Vaccine administration date</t>
-  </si>
-  <si>
-    <t>Date vaccine administered or was to be administered.</t>
-  </si>
-  <si>
-    <t>When immunizations are given a specific date and time should always be known.   When immunizations are patient reported, a specific date might not be known.  Although partial dates are allowed, an adult patient might not be able to recall the year a childhood immunization was given. An exact date is always preferable, but the use of the String data type is acceptable when an exact date is not known. A small number of vaccines (e.g. live oral typhoid vaccine) are given as a series of patient self-administered dose over a span of time. In cases like this, often, only the first dose (typically a provider supervised dose) is recorded with the occurrence indicating the date/time of the first dose.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>Event.occurrence[x]</t>
-  </si>
-  <si>
-    <t>RXA-3</t>
-  </si>
-  <si>
-    <t>.effectiveTime</t>
-  </si>
-  <si>
-    <t>FiveWs.done[x]</t>
-  </si>
-  <si>
-    <t>ClinicalDocument/component/StructuredBody/component/section/entry/substanceAdministration/effectiveTime/value</t>
-  </si>
-  <si>
-    <t>Immunization.occurrence[x]:occurrenceDateTime</t>
-  </si>
-  <si>
-    <t>occurrenceDateTime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dateTime
-</t>
+    <t>occurrence[x] absence reason</t>
+  </si>
+  <si>
+    <t>Provides a reason why the occurrence is missing.</t>
+  </si>
+  <si>
+    <t>ANY.nullFlavor</t>
+  </si>
+  <si>
+    <t>Immunization.occurrence[x]:occurrenceDateTime.value</t>
+  </si>
+  <si>
+    <t>Immunization.occurrence[x].value</t>
+  </si>
+  <si>
+    <t>Primitive value for dateTime</t>
+  </si>
+  <si>
+    <t>The actual value</t>
+  </si>
+  <si>
+    <t>dateTime.value</t>
   </si>
   <si>
     <t>Immunization.recorded</t>
@@ -1120,7 +1066,22 @@
     <t>Immunization.performer.id</t>
   </si>
   <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
     <t>Immunization.performer.extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>Immunization.performer.modifierExtension</t>
@@ -1147,6 +1108,9 @@
   </si>
   <si>
     <t>Describes the type of performance (e.g. ordering provider, administering provider, etc.).</t>
+  </si>
+  <si>
+    <t>extensible</t>
   </si>
   <si>
     <t>The role a practitioner or organization plays in the immunization event.</t>
@@ -1855,7 +1819,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO77"/>
+  <dimension ref="A1:AO75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1864,17 +1828,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="65.31640625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="45.78125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="30.546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="64.13671875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="39.25" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="19.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="97.56640625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="83.6484375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1883,27 +1847,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="66.7265625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="92.36328125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="43.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="57.20703125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="79.18359375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="37.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="147.5546875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="236.8828125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="158.05078125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="25.4609375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="126.50390625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="203.0859375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="135.5" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2859,7 +2823,7 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>81</v>
@@ -3432,43 +3396,41 @@
         <v>162</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="C14" s="2"/>
+        <v>133</v>
+      </c>
+      <c r="C14" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="D14" t="s" s="2">
-        <v>163</v>
+        <v>79</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>134</v>
+        <v>164</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="N14" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="O14" t="s" s="2">
-        <v>167</v>
-      </c>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>79</v>
       </c>
@@ -3516,7 +3478,7 @@
         <v>79</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>168</v>
+        <v>139</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>80</v>
@@ -3537,7 +3499,7 @@
         <v>79</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>132</v>
+        <v>79</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>79</v>
@@ -3548,14 +3510,14 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>79</v>
+        <v>168</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -3568,22 +3530,26 @@
         <v>79</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="J15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="L15" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="M15" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="O15" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>79</v>
       </c>
@@ -3631,7 +3597,7 @@
         <v>79</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>80</v>
@@ -3643,30 +3609,30 @@
         <v>79</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>173</v>
+        <v>79</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>174</v>
+        <v>132</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>175</v>
+        <v>79</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>176</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3674,32 +3640,30 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>109</v>
+        <v>175</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>180</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>79</v>
@@ -3724,13 +3688,13 @@
         <v>79</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>181</v>
+        <v>79</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>182</v>
+        <v>79</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>183</v>
+        <v>79</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>79</v>
@@ -3748,13 +3712,13 @@
         <v>79</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>79</v>
@@ -3763,27 +3727,27 @@
         <v>101</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>79</v>
+        <v>181</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3791,31 +3755,31 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>89</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>188</v>
+        <v>109</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3841,13 +3805,13 @@
         <v>79</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>79</v>
@@ -3865,10 +3829,10 @@
         <v>79</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>89</v>
@@ -3880,16 +3844,16 @@
         <v>101</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>79</v>
+        <v>191</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>79</v>
@@ -3897,10 +3861,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3908,30 +3872,32 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>89</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="N18" s="2"/>
+        <v>195</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>196</v>
+      </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>79</v>
@@ -3956,11 +3922,13 @@
         <v>79</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="Y18" s="2"/>
+        <v>197</v>
+      </c>
+      <c r="Y18" t="s" s="2">
+        <v>198</v>
+      </c>
       <c r="Z18" t="s" s="2">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>79</v>
@@ -3978,10 +3946,10 @@
         <v>79</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>89</v>
@@ -3993,27 +3961,27 @@
         <v>101</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>203</v>
+        <v>79</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>205</v>
+        <v>79</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>206</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4021,28 +3989,28 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>89</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -4069,13 +4037,11 @@
         <v>79</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y19" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="Y19" s="2"/>
       <c r="Z19" t="s" s="2">
-        <v>79</v>
+        <v>205</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>79</v>
@@ -4093,10 +4059,10 @@
         <v>79</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>89</v>
@@ -4105,41 +4071,41 @@
         <v>79</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>79</v>
+        <v>206</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>79</v>
+        <v>207</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>79</v>
+        <v>209</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>79</v>
+        <v>210</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>163</v>
+        <v>79</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>79</v>
@@ -4148,20 +4114,18 @@
         <v>79</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>134</v>
+        <v>212</v>
       </c>
       <c r="L20" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="M20" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="M20" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>166</v>
-      </c>
+      <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>79</v>
@@ -4198,43 +4162,43 @@
         <v>79</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AC20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF20" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK20" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="AL20" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="AD20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AF20" t="s" s="2">
+      <c r="AM20" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="AG20" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AK20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>212</v>
-      </c>
       <c r="AN20" t="s" s="2">
-        <v>79</v>
+        <v>218</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>79</v>
@@ -4242,10 +4206,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4256,7 +4220,7 @@
         <v>80</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>79</v>
@@ -4265,23 +4229,19 @@
         <v>79</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="N21" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="O21" t="s" s="2">
-        <v>223</v>
-      </c>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>79</v>
       </c>
@@ -4317,25 +4277,25 @@
         <v>79</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>224</v>
+        <v>79</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>225</v>
+        <v>79</v>
       </c>
       <c r="AD21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>79</v>
@@ -4344,16 +4304,16 @@
         <v>101</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>79</v>
+        <v>223</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>79</v>
+        <v>226</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>79</v>
@@ -4361,20 +4321,18 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="C22" t="s" s="2">
-        <v>230</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>89</v>
@@ -4389,20 +4347,18 @@
         <v>90</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="L22" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="N22" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="M22" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>223</v>
-      </c>
+      <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>79</v>
       </c>
@@ -4426,35 +4382,35 @@
         <v>79</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="Y22" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Z22" t="s" s="2">
-        <v>201</v>
+        <v>79</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="AC22" s="2"/>
       <c r="AD22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>79</v>
+        <v>138</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>79</v>
@@ -4463,30 +4419,30 @@
         <v>101</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>79</v>
+        <v>233</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>79</v>
+        <v>236</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>79</v>
+        <v>237</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="D23" t="s" s="2">
         <v>79</v>
@@ -4499,7 +4455,7 @@
         <v>89</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>79</v>
@@ -4508,20 +4464,18 @@
         <v>90</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>223</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>79</v>
       </c>
@@ -4545,11 +4499,13 @@
         <v>79</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="Y23" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="Y23" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Z23" t="s" s="2">
-        <v>235</v>
+        <v>79</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>79</v>
@@ -4567,13 +4523,13 @@
         <v>79</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>79</v>
@@ -4582,31 +4538,29 @@
         <v>101</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>79</v>
+        <v>233</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>79</v>
+        <v>236</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>79</v>
+        <v>237</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="C24" t="s" s="2">
-        <v>237</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
         <v>79</v>
       </c>
@@ -4624,23 +4578,19 @@
         <v>79</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>219</v>
+        <v>243</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>223</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>79</v>
       </c>
@@ -4664,11 +4614,13 @@
         <v>79</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="Y24" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="Y24" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Z24" t="s" s="2">
-        <v>240</v>
+        <v>79</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>79</v>
@@ -4686,28 +4638,28 @@
         <v>79</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>226</v>
+        <v>246</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>227</v>
+        <v>79</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>228</v>
+        <v>79</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>79</v>
@@ -4718,10 +4670,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4732,7 +4684,7 @@
         <v>80</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>79</v>
@@ -4741,23 +4693,19 @@
         <v>79</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>208</v>
+        <v>134</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>242</v>
+        <v>135</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>245</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>79</v>
       </c>
@@ -4793,40 +4741,38 @@
         <v>79</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="AC25" s="2"/>
       <c r="AD25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>79</v>
+        <v>138</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>247</v>
+        <v>79</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>248</v>
+        <v>79</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>79</v>
@@ -4837,39 +4783,41 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="C26" s="2"/>
+        <v>248</v>
+      </c>
+      <c r="C26" t="s" s="2">
+        <v>251</v>
+      </c>
       <c r="D26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>89</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4923,28 +4871,28 @@
         <v>249</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>79</v>
+        <v>146</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>253</v>
+        <v>79</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>254</v>
+        <v>79</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>255</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>256</v>
+        <v>79</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>79</v>
@@ -4952,7 +4900,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>257</v>
@@ -4978,13 +4926,13 @@
         <v>79</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -5035,7 +4983,7 @@
         <v>79</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -5047,19 +4995,19 @@
         <v>79</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>261</v>
+        <v>79</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>262</v>
+        <v>79</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>263</v>
+        <v>79</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>264</v>
+        <v>79</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>79</v>
@@ -5067,10 +5015,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5078,7 +5026,7 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>89</v>
@@ -5090,20 +5038,18 @@
         <v>79</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>266</v>
+        <v>240</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>269</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>79</v>
@@ -5140,20 +5086,22 @@
         <v>79</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="AC28" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AD28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>89</v>
@@ -5165,31 +5113,29 @@
         <v>101</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>271</v>
+        <v>79</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>272</v>
+        <v>79</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>275</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="C29" t="s" s="2">
-        <v>277</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
         <v>79</v>
       </c>
@@ -5201,7 +5147,7 @@
         <v>89</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>79</v>
@@ -5210,16 +5156,16 @@
         <v>90</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5269,10 +5215,10 @@
         <v>79</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>89</v>
@@ -5284,27 +5230,27 @@
         <v>101</v>
       </c>
       <c r="AK29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL29" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="AL29" t="s" s="2">
+      <c r="AM29" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="AM29" t="s" s="2">
+      <c r="AN29" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="AN29" t="s" s="2">
-        <v>274</v>
-      </c>
       <c r="AO29" t="s" s="2">
-        <v>275</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5327,15 +5273,17 @@
         <v>79</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>278</v>
+        <v>193</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>276</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>277</v>
+      </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>79</v>
@@ -5360,13 +5308,13 @@
         <v>79</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>79</v>
+        <v>197</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>79</v>
+        <v>278</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>79</v>
+        <v>279</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>79</v>
@@ -5384,7 +5332,7 @@
         <v>79</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
@@ -5402,13 +5350,13 @@
         <v>79</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>79</v>
+        <v>271</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>79</v>
@@ -5416,10 +5364,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5439,20 +5387,18 @@
         <v>79</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>288</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>79</v>
@@ -5501,7 +5447,7 @@
         <v>79</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -5516,16 +5462,16 @@
         <v>101</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>79</v>
+        <v>285</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>79</v>
@@ -5533,10 +5479,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5559,17 +5505,15 @@
         <v>79</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>188</v>
+        <v>290</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>295</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>79</v>
@@ -5594,13 +5538,13 @@
         <v>79</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>192</v>
+        <v>79</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>296</v>
+        <v>79</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>297</v>
+        <v>79</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>79</v>
@@ -5618,7 +5562,7 @@
         <v>79</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -5636,24 +5580,24 @@
         <v>79</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>291</v>
+        <v>79</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>79</v>
+        <v>295</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5667,7 +5611,7 @@
         <v>89</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>79</v>
@@ -5676,13 +5620,13 @@
         <v>79</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>300</v>
+        <v>243</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5733,7 +5677,7 @@
         <v>79</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -5748,27 +5692,27 @@
         <v>101</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>303</v>
+        <v>79</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>306</v>
+        <v>79</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>79</v>
+        <v>301</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5791,13 +5735,13 @@
         <v>79</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5848,7 +5792,7 @@
         <v>79</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -5866,24 +5810,24 @@
         <v>79</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>313</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5906,13 +5850,13 @@
         <v>79</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5939,13 +5883,13 @@
         <v>79</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>79</v>
+        <v>197</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>79</v>
+        <v>311</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>79</v>
+        <v>312</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>79</v>
@@ -5963,7 +5907,7 @@
         <v>79</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -5981,24 +5925,24 @@
         <v>79</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6012,7 +5956,7 @@
         <v>89</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>79</v>
@@ -6021,13 +5965,13 @@
         <v>79</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>321</v>
+        <v>193</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -6054,13 +5998,11 @@
         <v>79</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y36" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="Y36" s="2"/>
       <c r="Z36" t="s" s="2">
-        <v>79</v>
+        <v>319</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>79</v>
@@ -6078,7 +6020,7 @@
         <v>79</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -6096,24 +6038,24 @@
         <v>79</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>79</v>
+        <v>322</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6127,7 +6069,7 @@
         <v>89</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>79</v>
@@ -6136,13 +6078,13 @@
         <v>79</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>188</v>
+        <v>324</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6169,13 +6111,13 @@
         <v>79</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>192</v>
+        <v>79</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>329</v>
+        <v>79</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>330</v>
+        <v>79</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>79</v>
@@ -6193,7 +6135,7 @@
         <v>79</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6211,24 +6153,24 @@
         <v>79</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>333</v>
+        <v>79</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6239,25 +6181,25 @@
         <v>80</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J38" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="I38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J38" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="K38" t="s" s="2">
-        <v>188</v>
+        <v>330</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6284,11 +6226,13 @@
         <v>79</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="Y38" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Z38" t="s" s="2">
-        <v>337</v>
+        <v>79</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>79</v>
@@ -6306,13 +6250,13 @@
         <v>79</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>79</v>
@@ -6321,27 +6265,27 @@
         <v>101</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>79</v>
+        <v>333</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>340</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6364,13 +6308,13 @@
         <v>79</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>342</v>
+        <v>243</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6421,7 +6365,7 @@
         <v>79</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>341</v>
+        <v>246</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -6433,16 +6377,16 @@
         <v>79</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>345</v>
+        <v>79</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>79</v>
@@ -6453,14 +6397,14 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>79</v>
+        <v>168</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6476,18 +6420,20 @@
         <v>79</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>348</v>
+        <v>134</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>342</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>171</v>
+      </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>79</v>
@@ -6536,7 +6482,7 @@
         <v>79</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>347</v>
+        <v>249</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -6548,16 +6494,16 @@
         <v>79</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>351</v>
+        <v>79</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>352</v>
+        <v>79</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>79</v>
@@ -6568,42 +6514,46 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>79</v>
+        <v>344</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>208</v>
+        <v>134</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>209</v>
+        <v>345</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
+        <v>346</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="O41" t="s" s="2">
+        <v>172</v>
+      </c>
       <c r="P41" t="s" s="2">
         <v>79</v>
       </c>
@@ -6651,19 +6601,19 @@
         <v>79</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>211</v>
+        <v>347</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>79</v>
+        <v>140</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>79</v>
@@ -6672,7 +6622,7 @@
         <v>79</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>212</v>
+        <v>132</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>79</v>
@@ -6683,21 +6633,21 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>163</v>
+        <v>79</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>79</v>
@@ -6706,20 +6656,18 @@
         <v>79</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>134</v>
+        <v>193</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>214</v>
+        <v>349</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>79</v>
@@ -6744,13 +6692,13 @@
         <v>79</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>79</v>
+        <v>351</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>79</v>
+        <v>352</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>79</v>
+        <v>353</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>79</v>
@@ -6768,28 +6716,28 @@
         <v>79</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>217</v>
+        <v>348</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>79</v>
+        <v>354</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>212</v>
+        <v>355</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>79</v>
@@ -6807,26 +6755,26 @@
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>357</v>
+        <v>79</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J43" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>134</v>
+        <v>357</v>
       </c>
       <c r="L43" t="s" s="2">
         <v>358</v>
@@ -6835,11 +6783,9 @@
         <v>359</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>167</v>
-      </c>
+        <v>360</v>
+      </c>
+      <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>79</v>
       </c>
@@ -6887,31 +6833,31 @@
         <v>79</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>79</v>
+        <v>361</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>132</v>
+        <v>362</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>79</v>
+        <v>363</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>79</v>
@@ -6919,10 +6865,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6933,7 +6879,7 @@
         <v>80</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>79</v>
@@ -6945,13 +6891,13 @@
         <v>90</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>188</v>
+        <v>365</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6978,37 +6924,37 @@
         <v>79</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>200</v>
+        <v>79</v>
       </c>
       <c r="Y44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF44" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="Z44" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="AA44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF44" t="s" s="2">
-        <v>361</v>
-      </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>79</v>
@@ -7017,13 +6963,13 @@
         <v>101</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>79</v>
+        <v>369</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>79</v>
@@ -7034,10 +6980,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7045,10 +6991,10 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>90</v>
@@ -7057,20 +7003,18 @@
         <v>79</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>369</v>
+        <v>193</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>372</v>
-      </c>
+        <v>373</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>79</v>
@@ -7095,13 +7039,13 @@
         <v>79</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>79</v>
+        <v>197</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>79</v>
+        <v>374</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>79</v>
+        <v>375</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>79</v>
@@ -7119,13 +7063,13 @@
         <v>79</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>79</v>
@@ -7134,16 +7078,16 @@
         <v>101</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>375</v>
+        <v>79</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>79</v>
@@ -7151,10 +7095,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7174,16 +7118,16 @@
         <v>79</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7234,7 +7178,7 @@
         <v>79</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7249,13 +7193,13 @@
         <v>101</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>381</v>
+        <v>79</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>382</v>
+        <v>132</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>79</v>
@@ -7266,10 +7210,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7280,32 +7224,36 @@
         <v>80</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I47" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="I47" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="J47" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>188</v>
+        <v>267</v>
       </c>
       <c r="L47" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="M47" t="s" s="2">
+      <c r="N47" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="N47" s="2"/>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="Q47" s="2"/>
+      <c r="Q47" t="s" s="2">
+        <v>386</v>
+      </c>
       <c r="R47" t="s" s="2">
         <v>79</v>
       </c>
@@ -7325,13 +7273,13 @@
         <v>79</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>192</v>
+        <v>79</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>386</v>
+        <v>79</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>387</v>
+        <v>79</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>79</v>
@@ -7349,13 +7297,13 @@
         <v>79</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>79</v>
@@ -7364,13 +7312,13 @@
         <v>101</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>388</v>
+        <v>79</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>79</v>
+        <v>387</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>389</v>
+        <v>132</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>79</v>
@@ -7381,10 +7329,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7407,13 +7355,13 @@
         <v>79</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>391</v>
+        <v>193</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7440,13 +7388,13 @@
         <v>79</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>79</v>
+        <v>197</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>79</v>
+        <v>391</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>79</v>
+        <v>392</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>79</v>
@@ -7464,7 +7412,7 @@
         <v>79</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -7479,7 +7427,7 @@
         <v>101</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>393</v>
+        <v>79</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>79</v>
@@ -7496,10 +7444,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7510,36 +7458,32 @@
         <v>80</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>285</v>
+        <v>330</v>
       </c>
       <c r="L49" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="M49" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>397</v>
-      </c>
+      <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="Q49" t="s" s="2">
-        <v>398</v>
-      </c>
+      <c r="Q49" s="2"/>
       <c r="R49" t="s" s="2">
         <v>79</v>
       </c>
@@ -7583,25 +7527,25 @@
         <v>79</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>101</v>
+        <v>396</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>399</v>
+        <v>79</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>132</v>
@@ -7615,10 +7559,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7629,7 +7573,7 @@
         <v>80</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>79</v>
@@ -7641,13 +7585,13 @@
         <v>79</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>188</v>
+        <v>243</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>401</v>
+        <v>337</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>402</v>
+        <v>338</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7674,13 +7618,13 @@
         <v>79</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>192</v>
+        <v>79</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>403</v>
+        <v>79</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>404</v>
+        <v>79</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>79</v>
@@ -7698,19 +7642,19 @@
         <v>79</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>400</v>
+        <v>246</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>79</v>
@@ -7719,7 +7663,7 @@
         <v>79</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>132</v>
+        <v>339</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>79</v>
@@ -7730,14 +7674,14 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>79</v>
+        <v>168</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -7756,15 +7700,17 @@
         <v>79</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>348</v>
+        <v>134</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>406</v>
+        <v>341</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>342</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>171</v>
+      </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>79</v>
@@ -7813,7 +7759,7 @@
         <v>79</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>405</v>
+        <v>249</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -7825,7 +7771,7 @@
         <v>79</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>408</v>
+        <v>140</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>79</v>
@@ -7834,7 +7780,7 @@
         <v>79</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>132</v>
+        <v>339</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>79</v>
@@ -7845,42 +7791,46 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>79</v>
+        <v>344</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>208</v>
+        <v>134</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>209</v>
+        <v>345</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
+        <v>346</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="O52" t="s" s="2">
+        <v>172</v>
+      </c>
       <c r="P52" t="s" s="2">
         <v>79</v>
       </c>
@@ -7928,19 +7878,19 @@
         <v>79</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>211</v>
+        <v>347</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>79</v>
+        <v>140</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>79</v>
@@ -7949,7 +7899,7 @@
         <v>79</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>212</v>
+        <v>132</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>79</v>
@@ -7960,21 +7910,21 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>163</v>
+        <v>79</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>79</v>
@@ -7986,17 +7936,15 @@
         <v>79</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>134</v>
+        <v>243</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>214</v>
+        <v>401</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>402</v>
+      </c>
+      <c r="N53" s="2"/>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>79</v>
@@ -8045,28 +7993,28 @@
         <v>79</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>217</v>
+        <v>400</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>79</v>
+        <v>403</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>212</v>
+        <v>132</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>79</v>
@@ -8077,46 +8025,42 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>357</v>
+        <v>79</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>134</v>
+        <v>103</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>358</v>
+        <v>405</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>167</v>
-      </c>
+        <v>406</v>
+      </c>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>79</v>
       </c>
@@ -8164,19 +8108,19 @@
         <v>79</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>360</v>
+        <v>404</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>79</v>
@@ -8196,10 +8140,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8222,13 +8166,13 @@
         <v>79</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>208</v>
+        <v>240</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8279,7 +8223,7 @@
         <v>79</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
@@ -8297,7 +8241,7 @@
         <v>79</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>132</v>
@@ -8311,10 +8255,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8337,13 +8281,13 @@
         <v>79</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>103</v>
+        <v>240</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8394,7 +8338,7 @@
         <v>79</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -8412,7 +8356,7 @@
         <v>79</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>79</v>
+        <v>414</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>132</v>
@@ -8426,10 +8370,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8440,7 +8384,7 @@
         <v>80</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>79</v>
@@ -8452,13 +8396,13 @@
         <v>79</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>278</v>
+        <v>193</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8485,13 +8429,13 @@
         <v>79</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>79</v>
+        <v>197</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>79</v>
+        <v>418</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>79</v>
+        <v>419</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>79</v>
@@ -8509,13 +8453,13 @@
         <v>79</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>79</v>
@@ -8527,7 +8471,7 @@
         <v>79</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>132</v>
@@ -8541,10 +8485,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8567,13 +8511,13 @@
         <v>79</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>278</v>
+        <v>193</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8600,13 +8544,13 @@
         <v>79</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>79</v>
+        <v>197</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>79</v>
+        <v>424</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>79</v>
+        <v>425</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>79</v>
@@ -8624,7 +8568,7 @@
         <v>79</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
@@ -8642,7 +8586,7 @@
         <v>79</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>426</v>
+        <v>79</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>132</v>
@@ -8656,10 +8600,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8682,15 +8626,17 @@
         <v>79</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>188</v>
+        <v>330</v>
       </c>
       <c r="L59" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="M59" t="s" s="2">
         <v>428</v>
       </c>
-      <c r="M59" t="s" s="2">
+      <c r="N59" t="s" s="2">
         <v>429</v>
       </c>
-      <c r="N59" s="2"/>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>79</v>
@@ -8715,13 +8661,13 @@
         <v>79</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>192</v>
+        <v>79</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>430</v>
+        <v>79</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>431</v>
+        <v>79</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>79</v>
@@ -8739,7 +8685,7 @@
         <v>79</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
@@ -8757,10 +8703,10 @@
         <v>79</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>132</v>
+        <v>431</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>79</v>
@@ -8771,10 +8717,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8797,13 +8743,13 @@
         <v>79</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>188</v>
+        <v>243</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>434</v>
+        <v>337</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>435</v>
+        <v>338</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8830,13 +8776,13 @@
         <v>79</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>192</v>
+        <v>79</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>436</v>
+        <v>79</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>437</v>
+        <v>79</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>79</v>
@@ -8854,7 +8800,7 @@
         <v>79</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>433</v>
+        <v>246</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
@@ -8866,7 +8812,7 @@
         <v>79</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>79</v>
@@ -8875,7 +8821,7 @@
         <v>79</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>132</v>
+        <v>339</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>79</v>
@@ -8886,14 +8832,14 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>79</v>
+        <v>168</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
@@ -8912,16 +8858,16 @@
         <v>79</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>348</v>
+        <v>134</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>439</v>
+        <v>341</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>440</v>
+        <v>342</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>441</v>
+        <v>171</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -8971,7 +8917,7 @@
         <v>79</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>438</v>
+        <v>249</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -8983,16 +8929,16 @@
         <v>79</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>442</v>
+        <v>79</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>443</v>
+        <v>339</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>79</v>
@@ -9003,42 +8949,46 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>79</v>
+        <v>344</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>208</v>
+        <v>134</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>209</v>
+        <v>345</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N62" s="2"/>
-      <c r="O62" s="2"/>
+        <v>346</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="O62" t="s" s="2">
+        <v>172</v>
+      </c>
       <c r="P62" t="s" s="2">
         <v>79</v>
       </c>
@@ -9086,19 +9036,19 @@
         <v>79</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>211</v>
+        <v>347</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>79</v>
+        <v>140</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>79</v>
@@ -9107,7 +9057,7 @@
         <v>79</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>212</v>
+        <v>132</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>79</v>
@@ -9118,21 +9068,21 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>163</v>
+        <v>79</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>79</v>
@@ -9144,17 +9094,15 @@
         <v>79</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>134</v>
+        <v>240</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>214</v>
+        <v>436</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>437</v>
+      </c>
+      <c r="N63" s="2"/>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>79</v>
@@ -9203,28 +9151,28 @@
         <v>79</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>217</v>
+        <v>435</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>79</v>
+        <v>438</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>212</v>
+        <v>235</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>79</v>
@@ -9235,46 +9183,42 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>357</v>
+        <v>79</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>134</v>
+        <v>440</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>358</v>
+        <v>441</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="O64" t="s" s="2">
-        <v>167</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="N64" s="2"/>
+      <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>79</v>
       </c>
@@ -9322,28 +9266,28 @@
         <v>79</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>360</v>
+        <v>439</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>79</v>
+        <v>443</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>132</v>
+        <v>444</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>79</v>
@@ -9354,10 +9298,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9380,13 +9324,13 @@
         <v>79</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -9437,7 +9381,7 @@
         <v>79</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
@@ -9455,10 +9399,10 @@
         <v>79</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>273</v>
+        <v>449</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>79</v>
@@ -9469,10 +9413,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9483,7 +9427,7 @@
         <v>80</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>79</v>
@@ -9495,13 +9439,13 @@
         <v>79</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="M66" t="s" s="2">
         <v>452</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>454</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -9552,13 +9496,13 @@
         <v>79</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>79</v>
@@ -9570,10 +9514,10 @@
         <v>79</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>455</v>
+        <v>79</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>456</v>
+        <v>132</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>79</v>
@@ -9584,10 +9528,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9610,13 +9554,13 @@
         <v>79</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>285</v>
+        <v>243</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>458</v>
+        <v>337</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>459</v>
+        <v>338</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -9667,7 +9611,7 @@
         <v>79</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>457</v>
+        <v>246</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
@@ -9679,16 +9623,16 @@
         <v>79</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>460</v>
+        <v>79</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>461</v>
+        <v>339</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>79</v>
@@ -9699,14 +9643,14 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>79</v>
+        <v>168</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
@@ -9725,15 +9669,17 @@
         <v>79</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>348</v>
+        <v>134</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>463</v>
+        <v>341</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="N68" s="2"/>
+        <v>342</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>171</v>
+      </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>79</v>
@@ -9782,7 +9728,7 @@
         <v>79</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>462</v>
+        <v>249</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
@@ -9794,7 +9740,7 @@
         <v>79</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>79</v>
@@ -9803,7 +9749,7 @@
         <v>79</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>132</v>
+        <v>339</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>79</v>
@@ -9814,42 +9760,46 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>79</v>
+        <v>344</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>208</v>
+        <v>134</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>209</v>
+        <v>345</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N69" s="2"/>
-      <c r="O69" s="2"/>
+        <v>346</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="O69" t="s" s="2">
+        <v>172</v>
+      </c>
       <c r="P69" t="s" s="2">
         <v>79</v>
       </c>
@@ -9897,19 +9847,19 @@
         <v>79</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>211</v>
+        <v>347</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>79</v>
+        <v>140</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>79</v>
@@ -9918,7 +9868,7 @@
         <v>79</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>212</v>
+        <v>132</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>79</v>
@@ -9929,21 +9879,21 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>163</v>
+        <v>79</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>79</v>
@@ -9955,17 +9905,15 @@
         <v>79</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>134</v>
+        <v>243</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>214</v>
+        <v>457</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>458</v>
+      </c>
+      <c r="N70" s="2"/>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>79</v>
@@ -10014,19 +9962,19 @@
         <v>79</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>217</v>
+        <v>456</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>79</v>
@@ -10035,7 +9983,7 @@
         <v>79</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>212</v>
+        <v>132</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>79</v>
@@ -10046,46 +9994,42 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>357</v>
+        <v>79</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>134</v>
+        <v>290</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>358</v>
+        <v>460</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="O71" t="s" s="2">
-        <v>167</v>
-      </c>
+        <v>461</v>
+      </c>
+      <c r="N71" s="2"/>
+      <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>79</v>
       </c>
@@ -10133,19 +10077,19 @@
         <v>79</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>360</v>
+        <v>459</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>79</v>
@@ -10165,10 +10109,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10179,7 +10123,7 @@
         <v>80</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>79</v>
@@ -10191,13 +10135,13 @@
         <v>79</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -10224,13 +10168,13 @@
         <v>79</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>79</v>
+        <v>465</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>79</v>
+        <v>466</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>79</v>
@@ -10248,13 +10192,13 @@
         <v>79</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>79</v>
@@ -10280,10 +10224,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10291,7 +10235,7 @@
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>89</v>
@@ -10306,15 +10250,17 @@
         <v>79</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>308</v>
+        <v>468</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="N73" s="2"/>
+        <v>470</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>471</v>
+      </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>79</v>
@@ -10351,22 +10297,20 @@
         <v>79</v>
       </c>
       <c r="AB73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC73" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="AC73" s="2"/>
       <c r="AD73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>79</v>
+        <v>138</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>89</v>
@@ -10395,12 +10339,14 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="C74" s="2"/>
+        <v>467</v>
+      </c>
+      <c r="C74" t="s" s="2">
+        <v>473</v>
+      </c>
       <c r="D74" t="s" s="2">
         <v>79</v>
       </c>
@@ -10409,10 +10355,10 @@
         <v>80</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H74" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="I74" t="s" s="2">
         <v>79</v>
@@ -10421,15 +10367,17 @@
         <v>79</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>188</v>
+        <v>474</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="N74" s="2"/>
+        <v>470</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>471</v>
+      </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>79</v>
@@ -10454,13 +10402,13 @@
         <v>79</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>477</v>
+        <v>79</v>
       </c>
       <c r="Z74" t="s" s="2">
-        <v>478</v>
+        <v>79</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>79</v>
@@ -10478,13 +10426,13 @@
         <v>79</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>79</v>
@@ -10510,10 +10458,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10521,7 +10469,7 @@
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>89</v>
@@ -10536,16 +10484,16 @@
         <v>79</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
@@ -10583,20 +10531,22 @@
         <v>79</v>
       </c>
       <c r="AB75" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="AC75" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AD75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>89</v>
@@ -10623,244 +10573,8 @@
         <v>79</v>
       </c>
     </row>
-    <row r="76" hidden="true">
-      <c r="A76" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="B76" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="C76" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="D76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E76" s="2"/>
-      <c r="F76" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G76" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H76" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="I76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K76" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="O76" s="2"/>
-      <c r="P76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q76" s="2"/>
-      <c r="R76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF76" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="AG76" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH76" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AN76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO76" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="77" hidden="true">
-      <c r="A77" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="B77" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="C77" s="2"/>
-      <c r="D77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E77" s="2"/>
-      <c r="F77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G77" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K77" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="O77" s="2"/>
-      <c r="P77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q77" s="2"/>
-      <c r="R77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF77" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="AG77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH77" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ77" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM77" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AN77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO77" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:AO77">
+  <autoFilter ref="A1:AO75">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -10870,7 +10584,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI76">
+  <conditionalFormatting sqref="A2:AI74">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/ig/ch-vacd/StructureDefinition-ch-vacd-immunization.xlsx
+++ b/ig/ch-vacd/StructureDefinition-ch-vacd-immunization.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$75</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$81</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2778" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2998" uniqueCount="504">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>6.0.0-ballot</t>
+    <t>6.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-22T09:46:13+00:00</t>
+    <t>2025-12-16T10:03:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -272,7 +272,9 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}ch-vacd-occurrence-1:Use this field as less as possible and only in cases you may really not declare structured information within the field occurrenceDateTime.  
+Using occurrenceString without occurrenceDateTime breaks automated structured processing. This means i.e. decision support systems (CDS) may not make real evaluations for immunization recommendations.  
+For some vaccinations where basic immunization templates exists, the declaration of fully vaccination according to the basic immunization plans can be done using the profile. {occurrence.exists() and (occurrence is string).not()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -370,7 +372,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -639,7 +641,7 @@
     <t>The reason why a vaccine was not administered.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/immunization-status-reason</t>
+    <t>http://hl7.org/fhir/ValueSet/immunization-status-reason|4.0.1</t>
   </si>
   <si>
     <t>Event.statusReason</t>
@@ -745,6 +747,9 @@
 </t>
   </si>
   <si>
+    <t>closed</t>
+  </si>
+  <si>
     <t>Event.occurrence[x]</t>
   </si>
   <si>
@@ -832,6 +837,20 @@
     <t>dateTime.value</t>
   </si>
   <si>
+    <t>Immunization.occurrence[x]:occurrenceString</t>
+  </si>
+  <si>
+    <t>occurrenceString</t>
+  </si>
+  <si>
+    <t>Possibility to declare textual description - not structured</t>
+  </si>
+  <si>
+    <t>Use this field as less as possible and only in cases you may really not declare structured information within the field occurrenceDateTime.  
+Using occurrenceString without occurrenceDateTime breaks automated structured processing. This means i.e. decision support systems (CDS) may not make real evaluations for immunization recommendations.  
+For some vaccinations where basic immunization templates exists, the declaration of fully vaccination according to the basic immunization plans can be done using the profile [CH VACD Basic Immunization](StructureDefinition-ch-vacd-basic-immunization.html).</t>
+  </si>
+  <si>
     <t>Immunization.recorded</t>
   </si>
   <si>
@@ -887,7 +906,7 @@
     <t>The source of the data for a record which is not from a primary source.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/immunization-origin</t>
+    <t>http://hl7.org/fhir/ValueSet/immunization-origin|4.0.1</t>
   </si>
   <si>
     <t>.participation[typeCode=INF].role[classCode=PAT] (this syntax for self-reported) .participation[typeCode=INF].role[classCode=LIC] (this syntax for health care professional) .participation[typeCode=INF].role[classCode=PRS] (this syntax for family member)</t>
@@ -896,7 +915,7 @@
     <t>Immunization.location</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Location)
+    <t xml:space="preserve">Reference(Location|4.0.1)
 </t>
   </si>
   <si>
@@ -921,7 +940,7 @@
     <t>Immunization.manufacturer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -989,7 +1008,7 @@
     <t>The site at which the vaccine was administered.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/immunization-site</t>
+    <t>http://hl7.org/fhir/ValueSet/immunization-site|4.0.1</t>
   </si>
   <si>
     <t>RXR-2</t>
@@ -1025,7 +1044,7 @@
     <t>Immunization.doseQuantity</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity}
+    <t xml:space="preserve">Quantity {SimpleQuantity|4.0.1}
 </t>
   </si>
   <si>
@@ -1116,7 +1135,7 @@
     <t>The role a practitioner or organization plays in the immunization event.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/immunization-function</t>
+    <t>http://hl7.org/fhir/ValueSet/immunization-function|4.0.1</t>
   </si>
   <si>
     <t>Event.performer.function</t>
@@ -1172,6 +1191,71 @@
     <t>note</t>
   </si>
   <si>
+    <t>Immunization.note.id</t>
+  </si>
+  <si>
+    <t>Immunization.note.extension</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Immunization.note.author[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitioner|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-patient|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-relatedperson|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-organization)
+</t>
+  </si>
+  <si>
+    <t>Individual responsible for the annotation</t>
+  </si>
+  <si>
+    <t>The individual responsible for making the annotation.</t>
+  </si>
+  <si>
+    <t>Organization is used when there's no need for specific attribution as to who made the comment.</t>
+  </si>
+  <si>
+    <t>Annotation.author[x]</t>
+  </si>
+  <si>
+    <t>Act.participant[typeCode=AUT].role</t>
+  </si>
+  <si>
+    <t>Immunization.note.time</t>
+  </si>
+  <si>
+    <t>When the annotation was made</t>
+  </si>
+  <si>
+    <t>Indicates when this particular annotation was made.</t>
+  </si>
+  <si>
+    <t>Annotation.time</t>
+  </si>
+  <si>
+    <t>Act.effectiveTime</t>
+  </si>
+  <si>
+    <t>Immunization.note.text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">markdown
+</t>
+  </si>
+  <si>
+    <t>The annotation  - text content (as markdown)</t>
+  </si>
+  <si>
+    <t>The text of the annotation in markdown format.</t>
+  </si>
+  <si>
+    <t>Annotation.text</t>
+  </si>
+  <si>
+    <t>Act.text</t>
+  </si>
+  <si>
     <t>Immunization.reasonCode</t>
   </si>
   <si>
@@ -1184,7 +1268,7 @@
     <t>The reason why a vaccine was administered.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/immunization-reason</t>
+    <t>http://hl7.org/fhir/ValueSet/immunization-reason|4.0.1</t>
   </si>
   <si>
     <t>Event.reasonCode</t>
@@ -1196,7 +1280,7 @@
     <t>Immunization.reasonReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Condition|Observation|DiagnosticReport)
+    <t xml:space="preserve">Reference(Condition|4.0.1|Observation|4.0.1|DiagnosticReport|4.0.1)
 </t>
   </si>
   <si>
@@ -1236,7 +1320,7 @@
     <t>The reason why a dose is considered to be subpotent.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/immunization-subpotent-reason</t>
+    <t>http://hl7.org/fhir/ValueSet/immunization-subpotent-reason|4.0.1</t>
   </si>
   <si>
     <t>Immunization.education</t>
@@ -1318,7 +1402,7 @@
     <t>The patient's eligibility for a vaccation program.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/immunization-program-eligibility</t>
+    <t>http://hl7.org/fhir/ValueSet/immunization-program-eligibility|4.0.1</t>
   </si>
   <si>
     <t>OBX-5 : OBX-3 = 64994-7</t>
@@ -1336,7 +1420,7 @@
     <t>The source of funding used to purchase the vaccine administered.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/immunization-funding-source</t>
+    <t>http://hl7.org/fhir/ValueSet/immunization-funding-source|4.0.1</t>
   </si>
   <si>
     <t>Immunization.reaction</t>
@@ -1381,7 +1465,7 @@
     <t>Immunization.reaction.detail</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Observation)
+    <t xml:space="preserve">Reference(Observation|4.0.1)
 </t>
   </si>
   <si>
@@ -1819,7 +1903,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO75"/>
+  <dimension ref="A1:AO81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1838,7 +1922,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="83.6484375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="209.72265625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1856,7 +1940,7 @@
     <col min="26" max="26" width="79.18359375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="37.21875" customWidth="true" bestFit="true" hidden="true"/>
@@ -2923,7 +3007,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" hidden="true">
+    <row r="10">
       <c r="A10" t="s" s="2">
         <v>141</v>
       </c>
@@ -3742,7 +3826,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="17" hidden="true">
+    <row r="17">
       <c r="A17" t="s" s="2">
         <v>182</v>
       </c>
@@ -3976,7 +4060,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="19" hidden="true">
+    <row r="19">
       <c r="A19" t="s" s="2">
         <v>202</v>
       </c>
@@ -4401,7 +4485,7 @@
         <v>79</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>138</v>
+        <v>233</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>227</v>
@@ -4419,30 +4503,30 @@
         <v>101</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>227</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D23" t="s" s="2">
         <v>79</v>
@@ -4464,7 +4548,7 @@
         <v>90</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L23" t="s" s="2">
         <v>229</v>
@@ -4538,27 +4622,27 @@
         <v>101</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4581,13 +4665,13 @@
         <v>79</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4638,7 +4722,7 @@
         <v>79</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
@@ -4670,10 +4754,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4751,7 +4835,7 @@
         <v>138</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
@@ -4781,15 +4865,15 @@
         <v>79</v>
       </c>
     </row>
-    <row r="26" hidden="true">
+    <row r="26">
       <c r="A26" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D26" t="s" s="2">
         <v>79</v>
@@ -4811,13 +4895,13 @@
         <v>79</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4868,7 +4952,7 @@
         <v>79</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -4889,7 +4973,7 @@
         <v>79</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>79</v>
@@ -4900,10 +4984,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4926,13 +5010,13 @@
         <v>79</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4983,7 +5067,7 @@
         <v>79</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -5015,12 +5099,14 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="C28" s="2"/>
+        <v>227</v>
+      </c>
+      <c r="C28" t="s" s="2">
+        <v>263</v>
+      </c>
       <c r="D28" t="s" s="2">
         <v>79</v>
       </c>
@@ -5038,18 +5124,20 @@
         <v>79</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="N28" s="2"/>
+        <v>265</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>231</v>
+      </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>79</v>
@@ -5098,10 +5186,10 @@
         <v>79</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>261</v>
+        <v>227</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>89</v>
@@ -5113,19 +5201,19 @@
         <v>101</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>79</v>
+        <v>234</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>79</v>
+        <v>235</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>264</v>
+        <v>236</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>265</v>
+        <v>237</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>79</v>
+        <v>238</v>
       </c>
     </row>
     <row r="29" hidden="true">
@@ -5153,20 +5241,18 @@
         <v>79</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="M29" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>270</v>
-      </c>
+      <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>79</v>
@@ -5233,13 +5319,13 @@
         <v>79</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>271</v>
+        <v>79</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>79</v>
@@ -5247,10 +5333,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5270,19 +5356,19 @@
         <v>79</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>193</v>
+        <v>272</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="N30" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>277</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5308,13 +5394,13 @@
         <v>79</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>197</v>
+        <v>79</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>278</v>
+        <v>79</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>279</v>
+        <v>79</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>79</v>
@@ -5332,7 +5418,7 @@
         <v>79</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
@@ -5350,13 +5436,13 @@
         <v>79</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>79</v>
@@ -5364,10 +5450,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5390,15 +5476,17 @@
         <v>79</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="L31" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="N31" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="L31" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>79</v>
@@ -5423,13 +5511,13 @@
         <v>79</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>79</v>
+        <v>197</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>79</v>
+        <v>283</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>79</v>
+        <v>284</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>79</v>
@@ -5447,7 +5535,7 @@
         <v>79</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -5462,16 +5550,16 @@
         <v>101</v>
       </c>
       <c r="AK31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL31" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="AM31" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="AL31" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>287</v>
-      </c>
       <c r="AN31" t="s" s="2">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>79</v>
@@ -5479,10 +5567,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5505,13 +5593,13 @@
         <v>79</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5562,7 +5650,7 @@
         <v>79</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -5577,27 +5665,27 @@
         <v>101</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>79</v>
+        <v>290</v>
       </c>
       <c r="AL32" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AM32" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="AN32" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="AM32" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="AN32" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AO32" t="s" s="2">
-        <v>295</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5611,7 +5699,7 @@
         <v>89</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>79</v>
@@ -5620,13 +5708,13 @@
         <v>79</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>243</v>
+        <v>295</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>297</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>298</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5677,7 +5765,7 @@
         <v>79</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -5695,24 +5783,24 @@
         <v>79</v>
       </c>
       <c r="AL33" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="AM33" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="AM33" t="s" s="2">
+      <c r="AN33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO33" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="AN33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO33" t="s" s="2">
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="2">
         <v>301</v>
       </c>
-    </row>
-    <row r="34" hidden="true">
-      <c r="A34" t="s" s="2">
-        <v>302</v>
-      </c>
       <c r="B34" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5726,7 +5814,7 @@
         <v>89</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>79</v>
@@ -5735,13 +5823,13 @@
         <v>79</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>305</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5792,7 +5880,7 @@
         <v>79</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -5810,24 +5898,24 @@
         <v>79</v>
       </c>
       <c r="AL34" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="AM34" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="AN34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO34" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="AN34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO34" t="s" s="2">
-        <v>79</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5841,7 +5929,7 @@
         <v>89</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>79</v>
@@ -5850,7 +5938,7 @@
         <v>79</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>193</v>
+        <v>308</v>
       </c>
       <c r="L35" t="s" s="2">
         <v>309</v>
@@ -5883,13 +5971,13 @@
         <v>79</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>197</v>
+        <v>79</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>311</v>
+        <v>79</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>312</v>
+        <v>79</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>79</v>
@@ -5907,7 +5995,7 @@
         <v>79</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -5925,24 +6013,24 @@
         <v>79</v>
       </c>
       <c r="AL35" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="AM35" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="AN35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO35" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="AM35" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="AN35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO35" t="s" s="2">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="36" hidden="true">
-      <c r="A36" t="s" s="2">
-        <v>316</v>
-      </c>
       <c r="B36" t="s" s="2">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5968,10 +6056,10 @@
         <v>193</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5998,11 +6086,13 @@
         <v>79</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="Y36" s="2"/>
+        <v>197</v>
+      </c>
+      <c r="Y36" t="s" s="2">
+        <v>316</v>
+      </c>
       <c r="Z36" t="s" s="2">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>79</v>
@@ -6020,7 +6110,7 @@
         <v>79</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -6038,24 +6128,24 @@
         <v>79</v>
       </c>
       <c r="AL36" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="AM36" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="AN36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO36" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="AM36" t="s" s="2">
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="AN36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO36" t="s" s="2">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="37" hidden="true">
-      <c r="A37" t="s" s="2">
-        <v>323</v>
-      </c>
       <c r="B37" t="s" s="2">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6069,7 +6159,7 @@
         <v>89</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>79</v>
@@ -6078,13 +6168,13 @@
         <v>79</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>324</v>
+        <v>193</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6111,13 +6201,11 @@
         <v>79</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y37" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="Y37" s="2"/>
       <c r="Z37" t="s" s="2">
-        <v>79</v>
+        <v>324</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>79</v>
@@ -6135,7 +6223,7 @@
         <v>79</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6153,24 +6241,24 @@
         <v>79</v>
       </c>
       <c r="AL37" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="AM37" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="AN37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO37" t="s" s="2">
         <v>327</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="AN37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO37" t="s" s="2">
-        <v>79</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6181,7 +6269,7 @@
         <v>80</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>79</v>
@@ -6190,16 +6278,16 @@
         <v>79</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>331</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>332</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6250,13 +6338,13 @@
         <v>79</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>79</v>
@@ -6265,13 +6353,13 @@
         <v>101</v>
       </c>
       <c r="AK38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="AM38" t="s" s="2">
         <v>333</v>
-      </c>
-      <c r="AL38" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>335</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>79</v>
@@ -6282,10 +6370,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6296,7 +6384,7 @@
         <v>80</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>79</v>
@@ -6305,16 +6393,16 @@
         <v>79</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>243</v>
+        <v>335</v>
       </c>
       <c r="L39" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>337</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>338</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6365,28 +6453,28 @@
         <v>79</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>246</v>
+        <v>334</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>79</v>
+        <v>338</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>79</v>
+        <v>339</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>79</v>
@@ -6397,21 +6485,21 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>168</v>
+        <v>79</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>79</v>
@@ -6423,17 +6511,15 @@
         <v>79</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>134</v>
+        <v>244</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>171</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>79</v>
@@ -6482,19 +6568,19 @@
         <v>79</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>140</v>
+        <v>79</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>79</v>
@@ -6503,7 +6589,7 @@
         <v>79</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>79</v>
@@ -6514,14 +6600,14 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>344</v>
+        <v>168</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6534,26 +6620,24 @@
         <v>79</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K41" t="s" s="2">
         <v>134</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N41" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="O41" t="s" s="2">
-        <v>172</v>
-      </c>
+      <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>79</v>
       </c>
@@ -6601,7 +6685,7 @@
         <v>79</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>347</v>
+        <v>250</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -6622,7 +6706,7 @@
         <v>79</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>132</v>
+        <v>344</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>79</v>
@@ -6640,35 +6724,39 @@
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>79</v>
+        <v>349</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="J42" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>193</v>
+        <v>134</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
+        <v>351</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="O42" t="s" s="2">
+        <v>172</v>
+      </c>
       <c r="P42" t="s" s="2">
         <v>79</v>
       </c>
@@ -6692,52 +6780,52 @@
         <v>79</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>351</v>
+        <v>79</v>
       </c>
       <c r="Y42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF42" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="Z42" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="AA42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF42" t="s" s="2">
-        <v>348</v>
-      </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>354</v>
+        <v>79</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>355</v>
+        <v>132</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>79</v>
@@ -6748,10 +6836,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6759,13 +6847,13 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>89</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>79</v>
@@ -6774,17 +6862,15 @@
         <v>90</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>357</v>
+        <v>193</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>360</v>
-      </c>
+        <v>355</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>79</v>
@@ -6809,13 +6895,13 @@
         <v>79</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>79</v>
+        <v>356</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>79</v>
+        <v>357</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>79</v>
+        <v>358</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>79</v>
@@ -6833,10 +6919,10 @@
         <v>79</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>89</v>
@@ -6848,27 +6934,27 @@
         <v>101</v>
       </c>
       <c r="AK43" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="AL43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM43" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="AN43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO43" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="AL43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM43" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="AN43" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="AO43" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="44" hidden="true">
-      <c r="A44" t="s" s="2">
-        <v>364</v>
-      </c>
       <c r="B44" t="s" s="2">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6876,13 +6962,13 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>79</v>
@@ -6891,15 +6977,17 @@
         <v>90</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="N44" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="L44" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>79</v>
@@ -6948,13 +7036,13 @@
         <v>79</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>79</v>
@@ -6963,16 +7051,16 @@
         <v>101</v>
       </c>
       <c r="AK44" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM44" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="AN44" t="s" s="2">
         <v>368</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="AM44" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="AN44" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>79</v>
@@ -6980,10 +7068,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6997,22 +7085,22 @@
         <v>81</v>
       </c>
       <c r="H45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J45" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="I45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J45" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="K45" t="s" s="2">
-        <v>193</v>
+        <v>370</v>
       </c>
       <c r="L45" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="M45" t="s" s="2">
         <v>372</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>373</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7039,13 +7127,13 @@
         <v>79</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>197</v>
+        <v>79</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>374</v>
+        <v>79</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>375</v>
+        <v>79</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>79</v>
@@ -7063,7 +7151,7 @@
         <v>79</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7078,13 +7166,13 @@
         <v>101</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>79</v>
+        <v>374</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>79</v>
@@ -7095,10 +7183,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7109,7 +7197,7 @@
         <v>80</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>79</v>
@@ -7121,13 +7209,13 @@
         <v>79</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>379</v>
+        <v>244</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>372</v>
+        <v>342</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>380</v>
+        <v>343</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7178,28 +7266,28 @@
         <v>79</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>378</v>
+        <v>247</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>381</v>
+        <v>79</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>132</v>
+        <v>344</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>79</v>
@@ -7210,50 +7298,48 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>79</v>
+        <v>168</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>267</v>
+        <v>134</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>383</v>
+        <v>346</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>384</v>
+        <v>347</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>385</v>
+        <v>171</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="Q47" t="s" s="2">
-        <v>386</v>
-      </c>
+      <c r="Q47" s="2"/>
       <c r="R47" t="s" s="2">
         <v>79</v>
       </c>
@@ -7285,40 +7371,40 @@
         <v>79</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>79</v>
+        <v>378</v>
       </c>
       <c r="AD47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>79</v>
+        <v>138</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>382</v>
+        <v>250</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>387</v>
+        <v>79</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>132</v>
+        <v>344</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>79</v>
@@ -7329,10 +7415,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7343,7 +7429,7 @@
         <v>80</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>79</v>
@@ -7352,18 +7438,20 @@
         <v>79</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>193</v>
+        <v>380</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>382</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>383</v>
+      </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>79</v>
@@ -7388,13 +7476,13 @@
         <v>79</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>197</v>
+        <v>79</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>391</v>
+        <v>79</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>392</v>
+        <v>79</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>79</v>
@@ -7412,13 +7500,13 @@
         <v>79</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>79</v>
@@ -7430,10 +7518,10 @@
         <v>79</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>79</v>
+        <v>132</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>132</v>
+        <v>385</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>79</v>
@@ -7444,10 +7532,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7458,7 +7546,7 @@
         <v>80</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>79</v>
@@ -7467,16 +7555,16 @@
         <v>79</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>330</v>
+        <v>241</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7527,28 +7615,28 @@
         <v>79</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>396</v>
+        <v>101</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>79</v>
+        <v>132</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>132</v>
+        <v>390</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>79</v>
@@ -7559,10 +7647,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7570,7 +7658,7 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>89</v>
@@ -7582,16 +7670,16 @@
         <v>79</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>243</v>
+        <v>392</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>337</v>
+        <v>393</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>338</v>
+        <v>394</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7642,10 +7730,10 @@
         <v>79</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>246</v>
+        <v>395</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>89</v>
@@ -7654,16 +7742,16 @@
         <v>79</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>79</v>
+        <v>132</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>339</v>
+        <v>396</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>79</v>
@@ -7672,16 +7760,16 @@
         <v>79</v>
       </c>
     </row>
-    <row r="51" hidden="true">
+    <row r="51">
       <c r="A51" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>168</v>
+        <v>79</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -7691,7 +7779,7 @@
         <v>81</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>79</v>
@@ -7700,17 +7788,15 @@
         <v>79</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>134</v>
+        <v>193</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>341</v>
+        <v>398</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>171</v>
-      </c>
+        <v>399</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>79</v>
@@ -7735,13 +7821,13 @@
         <v>79</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>79</v>
+        <v>197</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>79</v>
+        <v>400</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>79</v>
+        <v>401</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>79</v>
@@ -7759,7 +7845,7 @@
         <v>79</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>249</v>
+        <v>397</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -7771,16 +7857,16 @@
         <v>79</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>79</v>
+        <v>402</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>339</v>
+        <v>403</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>79</v>
@@ -7791,14 +7877,14 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>344</v>
+        <v>79</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -7811,26 +7897,22 @@
         <v>79</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>134</v>
+        <v>405</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>345</v>
+        <v>398</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>172</v>
-      </c>
+        <v>406</v>
+      </c>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>79</v>
       </c>
@@ -7878,7 +7960,7 @@
         <v>79</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>347</v>
+        <v>404</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -7890,10 +7972,10 @@
         <v>79</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>79</v>
+        <v>407</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>79</v>
@@ -7910,10 +7992,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7930,26 +8012,30 @@
         <v>79</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>243</v>
+        <v>272</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="N53" s="2"/>
+        <v>410</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>411</v>
+      </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="Q53" s="2"/>
+      <c r="Q53" t="s" s="2">
+        <v>412</v>
+      </c>
       <c r="R53" t="s" s="2">
         <v>79</v>
       </c>
@@ -7993,7 +8079,7 @@
         <v>79</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -8011,7 +8097,7 @@
         <v>79</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>132</v>
@@ -8025,10 +8111,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8039,7 +8125,7 @@
         <v>80</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>79</v>
@@ -8051,13 +8137,13 @@
         <v>79</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>103</v>
+        <v>193</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8084,13 +8170,13 @@
         <v>79</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>79</v>
+        <v>197</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>79</v>
+        <v>417</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>79</v>
+        <v>418</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>79</v>
@@ -8108,13 +8194,13 @@
         <v>79</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>79</v>
@@ -8140,10 +8226,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8154,7 +8240,7 @@
         <v>80</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>79</v>
@@ -8166,13 +8252,13 @@
         <v>79</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>240</v>
+        <v>335</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>408</v>
+        <v>420</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>409</v>
+        <v>421</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8223,25 +8309,25 @@
         <v>79</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>101</v>
+        <v>422</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>410</v>
+        <v>79</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>132</v>
@@ -8255,10 +8341,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>411</v>
+        <v>423</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>411</v>
+        <v>423</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8281,13 +8367,13 @@
         <v>79</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>412</v>
+        <v>342</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>413</v>
+        <v>343</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8338,7 +8424,7 @@
         <v>79</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>411</v>
+        <v>247</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -8350,16 +8436,16 @@
         <v>79</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>414</v>
+        <v>79</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>132</v>
+        <v>344</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>79</v>
@@ -8370,14 +8456,14 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>415</v>
+        <v>424</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>415</v>
+        <v>424</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>79</v>
+        <v>168</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -8396,15 +8482,17 @@
         <v>79</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>193</v>
+        <v>134</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>416</v>
+        <v>346</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="N57" s="2"/>
+        <v>347</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>171</v>
+      </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>79</v>
@@ -8429,13 +8517,13 @@
         <v>79</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>197</v>
+        <v>79</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>418</v>
+        <v>79</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>419</v>
+        <v>79</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>79</v>
@@ -8453,7 +8541,7 @@
         <v>79</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>415</v>
+        <v>250</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -8465,16 +8553,16 @@
         <v>79</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>420</v>
+        <v>79</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>132</v>
+        <v>344</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>79</v>
@@ -8485,42 +8573,46 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>79</v>
+        <v>349</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>193</v>
+        <v>134</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>422</v>
+        <v>350</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="N58" s="2"/>
-      <c r="O58" s="2"/>
+        <v>351</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="O58" t="s" s="2">
+        <v>172</v>
+      </c>
       <c r="P58" t="s" s="2">
         <v>79</v>
       </c>
@@ -8544,13 +8636,13 @@
         <v>79</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>197</v>
+        <v>79</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>424</v>
+        <v>79</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>425</v>
+        <v>79</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>79</v>
@@ -8568,19 +8660,19 @@
         <v>79</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>421</v>
+        <v>352</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>79</v>
@@ -8614,7 +8706,7 @@
         <v>80</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>79</v>
@@ -8626,7 +8718,7 @@
         <v>79</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>330</v>
+        <v>244</v>
       </c>
       <c r="L59" t="s" s="2">
         <v>427</v>
@@ -8634,9 +8726,7 @@
       <c r="M59" t="s" s="2">
         <v>428</v>
       </c>
-      <c r="N59" t="s" s="2">
-        <v>429</v>
-      </c>
+      <c r="N59" s="2"/>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>79</v>
@@ -8691,7 +8781,7 @@
         <v>80</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>79</v>
@@ -8703,10 +8793,10 @@
         <v>79</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>431</v>
+        <v>132</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>79</v>
@@ -8717,10 +8807,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8743,13 +8833,13 @@
         <v>79</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>243</v>
+        <v>103</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>337</v>
+        <v>431</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>338</v>
+        <v>432</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8800,7 +8890,7 @@
         <v>79</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>246</v>
+        <v>430</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
@@ -8812,7 +8902,7 @@
         <v>79</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>79</v>
@@ -8821,7 +8911,7 @@
         <v>79</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>339</v>
+        <v>132</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>79</v>
@@ -8839,14 +8929,14 @@
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>168</v>
+        <v>79</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>79</v>
@@ -8858,17 +8948,15 @@
         <v>79</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>134</v>
+        <v>241</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>341</v>
+        <v>434</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>171</v>
-      </c>
+        <v>435</v>
+      </c>
+      <c r="N61" s="2"/>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>79</v>
@@ -8917,28 +9005,28 @@
         <v>79</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>249</v>
+        <v>433</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>79</v>
+        <v>436</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>339</v>
+        <v>132</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>79</v>
@@ -8949,46 +9037,42 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>344</v>
+        <v>79</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>134</v>
+        <v>241</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>345</v>
+        <v>438</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>172</v>
-      </c>
+        <v>439</v>
+      </c>
+      <c r="N62" s="2"/>
+      <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>79</v>
       </c>
@@ -9036,25 +9120,25 @@
         <v>79</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>347</v>
+        <v>437</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>79</v>
+        <v>440</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>132</v>
@@ -9068,10 +9152,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9082,7 +9166,7 @@
         <v>80</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>79</v>
@@ -9094,13 +9178,13 @@
         <v>79</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>240</v>
+        <v>193</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9127,13 +9211,13 @@
         <v>79</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>79</v>
+        <v>197</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>79</v>
+        <v>444</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>79</v>
+        <v>445</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>79</v>
@@ -9151,13 +9235,13 @@
         <v>79</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>79</v>
@@ -9169,10 +9253,10 @@
         <v>79</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>235</v>
+        <v>132</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>79</v>
@@ -9183,10 +9267,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9209,13 +9293,13 @@
         <v>79</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>440</v>
+        <v>193</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9242,13 +9326,13 @@
         <v>79</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>79</v>
+        <v>197</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>79</v>
+        <v>450</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>79</v>
+        <v>451</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>79</v>
@@ -9266,7 +9350,7 @@
         <v>79</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
@@ -9284,10 +9368,10 @@
         <v>79</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>443</v>
+        <v>79</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>444</v>
+        <v>132</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>79</v>
@@ -9298,10 +9382,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9312,7 +9396,7 @@
         <v>80</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>79</v>
@@ -9324,15 +9408,17 @@
         <v>79</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>267</v>
+        <v>335</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="N65" s="2"/>
+        <v>454</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>455</v>
+      </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>79</v>
@@ -9381,13 +9467,13 @@
         <v>79</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>79</v>
@@ -9399,10 +9485,10 @@
         <v>79</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>79</v>
@@ -9413,10 +9499,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9427,7 +9513,7 @@
         <v>80</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>79</v>
@@ -9439,13 +9525,13 @@
         <v>79</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>330</v>
+        <v>244</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>451</v>
+        <v>342</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>452</v>
+        <v>343</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -9496,19 +9582,19 @@
         <v>79</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>450</v>
+        <v>247</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>79</v>
@@ -9517,7 +9603,7 @@
         <v>79</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>132</v>
+        <v>344</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>79</v>
@@ -9528,21 +9614,21 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>79</v>
+        <v>168</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>79</v>
@@ -9554,15 +9640,17 @@
         <v>79</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>243</v>
+        <v>134</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="N67" s="2"/>
+        <v>347</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>171</v>
+      </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>79</v>
@@ -9611,19 +9699,19 @@
         <v>79</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>79</v>
+        <v>140</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>79</v>
@@ -9632,7 +9720,7 @@
         <v>79</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>79</v>
@@ -9643,14 +9731,14 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>168</v>
+        <v>349</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
@@ -9663,24 +9751,26 @@
         <v>79</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K68" t="s" s="2">
         <v>134</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="N68" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="O68" s="2"/>
+      <c r="O68" t="s" s="2">
+        <v>172</v>
+      </c>
       <c r="P68" t="s" s="2">
         <v>79</v>
       </c>
@@ -9728,7 +9818,7 @@
         <v>79</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>249</v>
+        <v>352</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
@@ -9749,7 +9839,7 @@
         <v>79</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>339</v>
+        <v>132</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>79</v>
@@ -9760,46 +9850,42 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>344</v>
+        <v>79</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>134</v>
+        <v>241</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>345</v>
+        <v>462</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="O69" t="s" s="2">
-        <v>172</v>
-      </c>
+        <v>463</v>
+      </c>
+      <c r="N69" s="2"/>
+      <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>79</v>
       </c>
@@ -9847,28 +9933,28 @@
         <v>79</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>347</v>
+        <v>461</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>79</v>
+        <v>464</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>132</v>
+        <v>236</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>79</v>
@@ -9879,10 +9965,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9905,13 +9991,13 @@
         <v>79</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>243</v>
+        <v>466</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>457</v>
+        <v>467</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -9962,7 +10048,7 @@
         <v>79</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
@@ -9980,10 +10066,10 @@
         <v>79</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>79</v>
+        <v>469</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>132</v>
+        <v>470</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>79</v>
@@ -9994,10 +10080,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10020,13 +10106,13 @@
         <v>79</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>290</v>
+        <v>272</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>460</v>
+        <v>472</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>461</v>
+        <v>473</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -10077,7 +10163,7 @@
         <v>79</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
@@ -10095,10 +10181,10 @@
         <v>79</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>79</v>
+        <v>474</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>132</v>
+        <v>475</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>79</v>
@@ -10109,10 +10195,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10135,13 +10221,13 @@
         <v>79</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>193</v>
+        <v>335</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>463</v>
+        <v>477</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>464</v>
+        <v>478</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -10168,13 +10254,13 @@
         <v>79</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>465</v>
+        <v>79</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>466</v>
+        <v>79</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>79</v>
@@ -10192,7 +10278,7 @@
         <v>79</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
@@ -10224,10 +10310,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>467</v>
+        <v>479</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>467</v>
+        <v>479</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10235,7 +10321,7 @@
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>89</v>
@@ -10250,17 +10336,15 @@
         <v>79</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>468</v>
+        <v>244</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>469</v>
+        <v>342</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>471</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="N73" s="2"/>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>79</v>
@@ -10297,20 +10381,22 @@
         <v>79</v>
       </c>
       <c r="AB73" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="AC73" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AD73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>467</v>
+        <v>247</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>89</v>
@@ -10319,7 +10405,7 @@
         <v>79</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>79</v>
@@ -10328,7 +10414,7 @@
         <v>79</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>132</v>
+        <v>344</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>79</v>
@@ -10339,26 +10425,24 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="C74" t="s" s="2">
-        <v>473</v>
-      </c>
+        <v>480</v>
+      </c>
+      <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>79</v>
+        <v>168</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H74" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="I74" t="s" s="2">
         <v>79</v>
@@ -10367,16 +10451,16 @@
         <v>79</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>474</v>
+        <v>134</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>469</v>
+        <v>346</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>470</v>
+        <v>347</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>471</v>
+        <v>171</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -10426,19 +10510,19 @@
         <v>79</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>467</v>
+        <v>250</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>79</v>
@@ -10447,7 +10531,7 @@
         <v>79</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>132</v>
+        <v>344</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>79</v>
@@ -10458,44 +10542,46 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>79</v>
+        <v>349</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>468</v>
+        <v>134</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>476</v>
+        <v>350</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>477</v>
+        <v>351</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="O75" s="2"/>
+        <v>171</v>
+      </c>
+      <c r="O75" t="s" s="2">
+        <v>172</v>
+      </c>
       <c r="P75" t="s" s="2">
         <v>79</v>
       </c>
@@ -10543,19 +10629,19 @@
         <v>79</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>475</v>
+        <v>352</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>79</v>
@@ -10573,18 +10659,714 @@
         <v>79</v>
       </c>
     </row>
+    <row r="76" hidden="true">
+      <c r="A76" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="B76" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="C76" s="2"/>
+      <c r="D76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E76" s="2"/>
+      <c r="F76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="N76" s="2"/>
+      <c r="O76" s="2"/>
+      <c r="P76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q76" s="2"/>
+      <c r="R76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AN76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO76" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="77" hidden="true">
+      <c r="A77" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="B77" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="C77" s="2"/>
+      <c r="D77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E77" s="2"/>
+      <c r="F77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="N77" s="2"/>
+      <c r="O77" s="2"/>
+      <c r="P77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q77" s="2"/>
+      <c r="R77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AN77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO77" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="78" hidden="true">
+      <c r="A78" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="B78" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="C78" s="2"/>
+      <c r="D78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E78" s="2"/>
+      <c r="F78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="N78" s="2"/>
+      <c r="O78" s="2"/>
+      <c r="P78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q78" s="2"/>
+      <c r="R78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AN78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO78" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="79" hidden="true">
+      <c r="A79" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="B79" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="C79" s="2"/>
+      <c r="D79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E79" s="2"/>
+      <c r="F79" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="O79" s="2"/>
+      <c r="P79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q79" s="2"/>
+      <c r="R79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="AC79" s="2"/>
+      <c r="AD79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM79" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AN79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO79" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="B80" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="C80" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="D80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E80" s="2"/>
+      <c r="F80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="O80" s="2"/>
+      <c r="P80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q80" s="2"/>
+      <c r="R80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM80" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AN80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO80" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" hidden="true">
+      <c r="A81" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="B81" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="C81" s="2"/>
+      <c r="D81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E81" s="2"/>
+      <c r="F81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="O81" s="2"/>
+      <c r="P81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q81" s="2"/>
+      <c r="R81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM81" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AN81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO81" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AO75">
-    <filterColumn colId="6">
+  <autoFilter ref="A1:AO81">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI74">
+  <conditionalFormatting sqref="A2:AI80">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
